--- a/2022/SAMSUNG/JUNE/21.06.2022/SAMSUNG Bank Statement June-2022.xlsx
+++ b/2022/SAMSUNG/JUNE/21.06.2022/SAMSUNG Bank Statement June-2022.xlsx
@@ -2211,7 +2211,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="458">
+  <cellXfs count="457">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3063,9 +3063,6 @@
     </xf>
     <xf numFmtId="21" fontId="36" fillId="44" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="36" fillId="44" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="15" fontId="42" fillId="45" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4014,33 +4011,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="396"/>
-      <c r="B1" s="396"/>
-      <c r="C1" s="396"/>
-      <c r="D1" s="396"/>
-      <c r="E1" s="396"/>
-      <c r="F1" s="396"/>
+      <c r="A1" s="395"/>
+      <c r="B1" s="395"/>
+      <c r="C1" s="395"/>
+      <c r="D1" s="395"/>
+      <c r="E1" s="395"/>
+      <c r="F1" s="395"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="397"/>
-      <c r="B2" s="394" t="s">
+      <c r="A2" s="396"/>
+      <c r="B2" s="393" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="394"/>
-      <c r="D2" s="394"/>
-      <c r="E2" s="394"/>
+      <c r="C2" s="393"/>
+      <c r="D2" s="393"/>
+      <c r="E2" s="393"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="397"/>
-      <c r="B3" s="395" t="s">
+      <c r="A3" s="396"/>
+      <c r="B3" s="394" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="395"/>
-      <c r="D3" s="395"/>
-      <c r="E3" s="395"/>
+      <c r="C3" s="394"/>
+      <c r="D3" s="394"/>
+      <c r="E3" s="394"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="397"/>
+      <c r="A4" s="396"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -4058,7 +4055,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="397"/>
+      <c r="A5" s="396"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -4076,7 +4073,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="397"/>
+      <c r="A6" s="396"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -4088,7 +4085,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="397"/>
+      <c r="A7" s="396"/>
       <c r="B7" s="26" t="s">
         <v>40</v>
       </c>
@@ -4107,7 +4104,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="397"/>
+      <c r="A8" s="396"/>
       <c r="B8" s="26" t="s">
         <v>41</v>
       </c>
@@ -4126,7 +4123,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="397"/>
+      <c r="A9" s="396"/>
       <c r="B9" s="26" t="s">
         <v>43</v>
       </c>
@@ -4145,7 +4142,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="397"/>
+      <c r="A10" s="396"/>
       <c r="B10" s="26" t="s">
         <v>44</v>
       </c>
@@ -4164,7 +4161,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="397"/>
+      <c r="A11" s="396"/>
       <c r="B11" s="26" t="s">
         <v>45</v>
       </c>
@@ -4183,7 +4180,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="397"/>
+      <c r="A12" s="396"/>
       <c r="B12" s="26" t="s">
         <v>46</v>
       </c>
@@ -4202,7 +4199,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="397"/>
+      <c r="A13" s="396"/>
       <c r="B13" s="26" t="s">
         <v>47</v>
       </c>
@@ -4221,7 +4218,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="397"/>
+      <c r="A14" s="396"/>
       <c r="B14" s="26" t="s">
         <v>48</v>
       </c>
@@ -4240,7 +4237,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="397"/>
+      <c r="A15" s="396"/>
       <c r="B15" s="26" t="s">
         <v>49</v>
       </c>
@@ -4259,7 +4256,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="397"/>
+      <c r="A16" s="396"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -4272,7 +4269,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="397"/>
+      <c r="A17" s="396"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -4285,7 +4282,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="397"/>
+      <c r="A18" s="396"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -4298,7 +4295,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="397"/>
+      <c r="A19" s="396"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -4311,7 +4308,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="397"/>
+      <c r="A20" s="396"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -4324,7 +4321,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="397"/>
+      <c r="A21" s="396"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -4337,7 +4334,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="397"/>
+      <c r="A22" s="396"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -4350,7 +4347,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="397"/>
+      <c r="A23" s="396"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -4363,7 +4360,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="397"/>
+      <c r="A24" s="396"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -4376,7 +4373,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="397"/>
+      <c r="A25" s="396"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4389,7 +4386,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="397"/>
+      <c r="A26" s="396"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4402,7 +4399,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="397"/>
+      <c r="A27" s="396"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -4415,7 +4412,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="397"/>
+      <c r="A28" s="396"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -4428,7 +4425,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="397"/>
+      <c r="A29" s="396"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -4441,7 +4438,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="397"/>
+      <c r="A30" s="396"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -4454,7 +4451,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="397"/>
+      <c r="A31" s="396"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -4467,7 +4464,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="397"/>
+      <c r="A32" s="396"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -4480,7 +4477,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="397"/>
+      <c r="A33" s="396"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -4493,7 +4490,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="397"/>
+      <c r="A34" s="396"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4506,7 +4503,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="397"/>
+      <c r="A35" s="396"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4519,7 +4516,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="397"/>
+      <c r="A36" s="396"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4532,7 +4529,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="397"/>
+      <c r="A37" s="396"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4545,7 +4542,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="397"/>
+      <c r="A38" s="396"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4558,7 +4555,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="397"/>
+      <c r="A39" s="396"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4571,7 +4568,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="397"/>
+      <c r="A40" s="396"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4584,7 +4581,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="397"/>
+      <c r="A41" s="396"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4597,7 +4594,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="397"/>
+      <c r="A42" s="396"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4610,7 +4607,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="397"/>
+      <c r="A43" s="396"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4623,7 +4620,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="397"/>
+      <c r="A44" s="396"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4636,7 +4633,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="397"/>
+      <c r="A45" s="396"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4649,7 +4646,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="397"/>
+      <c r="A46" s="396"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4662,7 +4659,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="397"/>
+      <c r="A47" s="396"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4675,7 +4672,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="397"/>
+      <c r="A48" s="396"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4688,7 +4685,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="397"/>
+      <c r="A49" s="396"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4701,7 +4698,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="397"/>
+      <c r="A50" s="396"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4714,7 +4711,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="397"/>
+      <c r="A51" s="396"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4727,7 +4724,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="397"/>
+      <c r="A52" s="396"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4740,7 +4737,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="397"/>
+      <c r="A53" s="396"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4753,7 +4750,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="397"/>
+      <c r="A54" s="396"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4766,7 +4763,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="397"/>
+      <c r="A55" s="396"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4778,7 +4775,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="397"/>
+      <c r="A56" s="396"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4790,7 +4787,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="397"/>
+      <c r="A57" s="396"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -4802,7 +4799,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="397"/>
+      <c r="A58" s="396"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -4814,7 +4811,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="397"/>
+      <c r="A59" s="396"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -4826,7 +4823,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="397"/>
+      <c r="A60" s="396"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -4838,7 +4835,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="397"/>
+      <c r="A61" s="396"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -4850,7 +4847,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="397"/>
+      <c r="A62" s="396"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -4862,7 +4859,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="397"/>
+      <c r="A63" s="396"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -4874,7 +4871,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="397"/>
+      <c r="A64" s="396"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -4886,7 +4883,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="397"/>
+      <c r="A65" s="396"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4898,7 +4895,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="397"/>
+      <c r="A66" s="396"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -4910,7 +4907,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="397"/>
+      <c r="A67" s="396"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -4922,7 +4919,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="397"/>
+      <c r="A68" s="396"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -4934,7 +4931,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="397"/>
+      <c r="A69" s="396"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -4946,7 +4943,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="397"/>
+      <c r="A70" s="396"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -4958,7 +4955,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="397"/>
+      <c r="A71" s="396"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -4970,7 +4967,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="397"/>
+      <c r="A72" s="396"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -4982,7 +4979,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="397"/>
+      <c r="A73" s="396"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -4994,7 +4991,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="397"/>
+      <c r="A74" s="396"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -5006,7 +5003,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="397"/>
+      <c r="A75" s="396"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -5018,7 +5015,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="397"/>
+      <c r="A76" s="396"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -5030,7 +5027,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="397"/>
+      <c r="A77" s="396"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -5042,7 +5039,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="397"/>
+      <c r="A78" s="396"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -5054,7 +5051,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="397"/>
+      <c r="A79" s="396"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -5066,7 +5063,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="397"/>
+      <c r="A80" s="396"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -5078,7 +5075,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="397"/>
+      <c r="A81" s="396"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -5090,7 +5087,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="397"/>
+      <c r="A82" s="396"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -5102,7 +5099,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="397"/>
+      <c r="A83" s="396"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -5159,33 +5156,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A1" s="396"/>
-      <c r="B1" s="396"/>
-      <c r="C1" s="396"/>
-      <c r="D1" s="396"/>
-      <c r="E1" s="396"/>
-      <c r="F1" s="396"/>
+      <c r="A1" s="395"/>
+      <c r="B1" s="395"/>
+      <c r="C1" s="395"/>
+      <c r="D1" s="395"/>
+      <c r="E1" s="395"/>
+      <c r="F1" s="395"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="397"/>
-      <c r="B2" s="394" t="s">
+      <c r="A2" s="396"/>
+      <c r="B2" s="393" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="394"/>
-      <c r="D2" s="394"/>
-      <c r="E2" s="394"/>
+      <c r="C2" s="393"/>
+      <c r="D2" s="393"/>
+      <c r="E2" s="393"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A3" s="397"/>
-      <c r="B3" s="395" t="s">
+      <c r="A3" s="396"/>
+      <c r="B3" s="394" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="395"/>
-      <c r="D3" s="395"/>
-      <c r="E3" s="395"/>
+      <c r="C3" s="394"/>
+      <c r="D3" s="394"/>
+      <c r="E3" s="394"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A4" s="397"/>
+      <c r="A4" s="396"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5203,7 +5200,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="397"/>
+      <c r="A5" s="396"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5221,7 +5218,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="397"/>
+      <c r="A6" s="396"/>
       <c r="B6" s="26"/>
       <c r="C6" s="240"/>
       <c r="D6" s="240"/>
@@ -5233,14 +5230,14 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="397"/>
+      <c r="A7" s="396"/>
       <c r="B7" s="26" t="s">
         <v>190</v>
       </c>
       <c r="C7" s="240">
         <v>1200000</v>
       </c>
-      <c r="D7" s="361">
+      <c r="D7" s="360">
         <v>1200000</v>
       </c>
       <c r="E7" s="241">
@@ -5253,14 +5250,14 @@
       <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="397"/>
+      <c r="A8" s="396"/>
       <c r="B8" s="26" t="s">
         <v>200</v>
       </c>
       <c r="C8" s="240">
         <v>1200000</v>
       </c>
-      <c r="D8" s="361">
+      <c r="D8" s="360">
         <v>1200000</v>
       </c>
       <c r="E8" s="241">
@@ -5273,7 +5270,7 @@
       <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="397"/>
+      <c r="A9" s="396"/>
       <c r="B9" s="26" t="s">
         <v>203</v>
       </c>
@@ -5293,7 +5290,7 @@
       <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="397"/>
+      <c r="A10" s="396"/>
       <c r="B10" s="26" t="s">
         <v>206</v>
       </c>
@@ -5313,7 +5310,7 @@
       <c r="I10" s="21"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="397"/>
+      <c r="A11" s="396"/>
       <c r="B11" s="26" t="s">
         <v>208</v>
       </c>
@@ -5333,7 +5330,7 @@
       <c r="I11" s="21"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="397"/>
+      <c r="A12" s="396"/>
       <c r="B12" s="26" t="s">
         <v>209</v>
       </c>
@@ -5353,7 +5350,7 @@
       <c r="I12" s="21"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="397"/>
+      <c r="A13" s="396"/>
       <c r="B13" s="26" t="s">
         <v>211</v>
       </c>
@@ -5373,7 +5370,7 @@
       <c r="I13" s="21"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="397"/>
+      <c r="A14" s="396"/>
       <c r="B14" s="26" t="s">
         <v>212</v>
       </c>
@@ -5393,7 +5390,7 @@
       <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="397"/>
+      <c r="A15" s="396"/>
       <c r="B15" s="26" t="s">
         <v>213</v>
       </c>
@@ -5413,7 +5410,7 @@
       <c r="I15" s="21"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="397"/>
+      <c r="A16" s="396"/>
       <c r="B16" s="26" t="s">
         <v>217</v>
       </c>
@@ -5433,7 +5430,7 @@
       <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="397"/>
+      <c r="A17" s="396"/>
       <c r="B17" s="26" t="s">
         <v>218</v>
       </c>
@@ -5453,7 +5450,7 @@
       <c r="I17" s="21"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="397"/>
+      <c r="A18" s="396"/>
       <c r="B18" s="26" t="s">
         <v>221</v>
       </c>
@@ -5473,7 +5470,7 @@
       <c r="I18" s="21"/>
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A19" s="397"/>
+      <c r="A19" s="396"/>
       <c r="B19" s="26" t="s">
         <v>221</v>
       </c>
@@ -5493,7 +5490,7 @@
       <c r="I19" s="21"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="397"/>
+      <c r="A20" s="396"/>
       <c r="B20" s="26" t="s">
         <v>226</v>
       </c>
@@ -5513,7 +5510,7 @@
       <c r="I20" s="21"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="397"/>
+      <c r="A21" s="396"/>
       <c r="B21" s="26" t="s">
         <v>231</v>
       </c>
@@ -5533,7 +5530,7 @@
       <c r="I21" s="21"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="397"/>
+      <c r="A22" s="396"/>
       <c r="B22" s="26" t="s">
         <v>232</v>
       </c>
@@ -5553,7 +5550,7 @@
       <c r="I22" s="21"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="397"/>
+      <c r="A23" s="396"/>
       <c r="B23" s="26" t="s">
         <v>235</v>
       </c>
@@ -5573,7 +5570,7 @@
       <c r="I23" s="21"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="397"/>
+      <c r="A24" s="396"/>
       <c r="B24" s="26" t="s">
         <v>239</v>
       </c>
@@ -5593,7 +5590,7 @@
       <c r="I24" s="21"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="397"/>
+      <c r="A25" s="396"/>
       <c r="B25" s="26"/>
       <c r="C25" s="240"/>
       <c r="D25" s="240"/>
@@ -5607,7 +5604,7 @@
       <c r="I25" s="21"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="397"/>
+      <c r="A26" s="396"/>
       <c r="B26" s="26"/>
       <c r="C26" s="240"/>
       <c r="D26" s="240"/>
@@ -5621,7 +5618,7 @@
       <c r="I26" s="21"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="397"/>
+      <c r="A27" s="396"/>
       <c r="B27" s="26"/>
       <c r="C27" s="240"/>
       <c r="D27" s="240"/>
@@ -5635,7 +5632,7 @@
       <c r="I27" s="21"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="397"/>
+      <c r="A28" s="396"/>
       <c r="B28" s="26"/>
       <c r="C28" s="240"/>
       <c r="D28" s="242"/>
@@ -5649,7 +5646,7 @@
       <c r="I28" s="21"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="397"/>
+      <c r="A29" s="396"/>
       <c r="B29" s="26"/>
       <c r="C29" s="240"/>
       <c r="D29" s="240"/>
@@ -5663,7 +5660,7 @@
       <c r="I29" s="21"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="397"/>
+      <c r="A30" s="396"/>
       <c r="B30" s="26"/>
       <c r="C30" s="240"/>
       <c r="D30" s="240"/>
@@ -5677,7 +5674,7 @@
       <c r="I30" s="21"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="397"/>
+      <c r="A31" s="396"/>
       <c r="B31" s="26"/>
       <c r="C31" s="240"/>
       <c r="D31" s="240"/>
@@ -5691,7 +5688,7 @@
       <c r="I31" s="21"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="397"/>
+      <c r="A32" s="396"/>
       <c r="B32" s="26"/>
       <c r="C32" s="240"/>
       <c r="D32" s="240"/>
@@ -5705,7 +5702,7 @@
       <c r="I32" s="21"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="397"/>
+      <c r="A33" s="396"/>
       <c r="B33" s="26"/>
       <c r="C33" s="240"/>
       <c r="D33" s="242"/>
@@ -5719,7 +5716,7 @@
       <c r="I33" s="21"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="397"/>
+      <c r="A34" s="396"/>
       <c r="B34" s="26"/>
       <c r="C34" s="240"/>
       <c r="D34" s="240"/>
@@ -5733,7 +5730,7 @@
       <c r="I34" s="21"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="397"/>
+      <c r="A35" s="396"/>
       <c r="B35" s="26"/>
       <c r="C35" s="240"/>
       <c r="D35" s="240"/>
@@ -5747,7 +5744,7 @@
       <c r="I35" s="21"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="397"/>
+      <c r="A36" s="396"/>
       <c r="B36" s="26"/>
       <c r="C36" s="240"/>
       <c r="D36" s="240"/>
@@ -5761,7 +5758,7 @@
       <c r="I36" s="21"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="397"/>
+      <c r="A37" s="396"/>
       <c r="B37" s="26"/>
       <c r="C37" s="240"/>
       <c r="D37" s="240"/>
@@ -5775,7 +5772,7 @@
       <c r="I37" s="21"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="397"/>
+      <c r="A38" s="396"/>
       <c r="B38" s="26"/>
       <c r="C38" s="240"/>
       <c r="D38" s="240"/>
@@ -5789,7 +5786,7 @@
       <c r="I38" s="21"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="397"/>
+      <c r="A39" s="396"/>
       <c r="B39" s="26"/>
       <c r="C39" s="240"/>
       <c r="D39" s="240"/>
@@ -5803,7 +5800,7 @@
       <c r="I39" s="21"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="397"/>
+      <c r="A40" s="396"/>
       <c r="B40" s="26"/>
       <c r="C40" s="240"/>
       <c r="D40" s="240"/>
@@ -5817,7 +5814,7 @@
       <c r="I40" s="21"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="397"/>
+      <c r="A41" s="396"/>
       <c r="B41" s="26"/>
       <c r="C41" s="240"/>
       <c r="D41" s="240"/>
@@ -5831,7 +5828,7 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="397"/>
+      <c r="A42" s="396"/>
       <c r="B42" s="26"/>
       <c r="C42" s="240"/>
       <c r="D42" s="240"/>
@@ -5845,7 +5842,7 @@
       <c r="I42" s="21"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="397"/>
+      <c r="A43" s="396"/>
       <c r="B43" s="26"/>
       <c r="C43" s="240"/>
       <c r="D43" s="240"/>
@@ -5859,7 +5856,7 @@
       <c r="I43" s="21"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="397"/>
+      <c r="A44" s="396"/>
       <c r="B44" s="26"/>
       <c r="C44" s="240"/>
       <c r="D44" s="240"/>
@@ -5873,7 +5870,7 @@
       <c r="I44" s="21"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="397"/>
+      <c r="A45" s="396"/>
       <c r="B45" s="26"/>
       <c r="C45" s="240"/>
       <c r="D45" s="240"/>
@@ -5887,7 +5884,7 @@
       <c r="I45" s="21"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="397"/>
+      <c r="A46" s="396"/>
       <c r="B46" s="26"/>
       <c r="C46" s="240"/>
       <c r="D46" s="240"/>
@@ -5901,7 +5898,7 @@
       <c r="I46" s="21"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="397"/>
+      <c r="A47" s="396"/>
       <c r="B47" s="26"/>
       <c r="C47" s="240"/>
       <c r="D47" s="240"/>
@@ -5915,7 +5912,7 @@
       <c r="I47" s="21"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="397"/>
+      <c r="A48" s="396"/>
       <c r="B48" s="26"/>
       <c r="C48" s="240"/>
       <c r="D48" s="240"/>
@@ -5929,7 +5926,7 @@
       <c r="I48" s="21"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="397"/>
+      <c r="A49" s="396"/>
       <c r="B49" s="26"/>
       <c r="C49" s="240"/>
       <c r="D49" s="240"/>
@@ -5943,7 +5940,7 @@
       <c r="I49" s="21"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="397"/>
+      <c r="A50" s="396"/>
       <c r="B50" s="26"/>
       <c r="C50" s="240"/>
       <c r="D50" s="240"/>
@@ -5957,7 +5954,7 @@
       <c r="I50" s="21"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="397"/>
+      <c r="A51" s="396"/>
       <c r="B51" s="26"/>
       <c r="C51" s="240"/>
       <c r="D51" s="240"/>
@@ -5971,7 +5968,7 @@
       <c r="I51" s="21"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="397"/>
+      <c r="A52" s="396"/>
       <c r="B52" s="26"/>
       <c r="C52" s="240"/>
       <c r="D52" s="240"/>
@@ -5985,7 +5982,7 @@
       <c r="I52" s="21"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="397"/>
+      <c r="A53" s="396"/>
       <c r="B53" s="26"/>
       <c r="C53" s="240"/>
       <c r="D53" s="240"/>
@@ -5999,7 +5996,7 @@
       <c r="I53" s="21"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="397"/>
+      <c r="A54" s="396"/>
       <c r="B54" s="26"/>
       <c r="C54" s="240"/>
       <c r="D54" s="240"/>
@@ -6013,7 +6010,7 @@
       <c r="I54" s="21"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="397"/>
+      <c r="A55" s="396"/>
       <c r="B55" s="26"/>
       <c r="C55" s="240"/>
       <c r="D55" s="240"/>
@@ -6027,7 +6024,7 @@
       <c r="I55" s="21"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="397"/>
+      <c r="A56" s="396"/>
       <c r="B56" s="26"/>
       <c r="C56" s="240"/>
       <c r="D56" s="240"/>
@@ -6041,7 +6038,7 @@
       <c r="I56" s="21"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="397"/>
+      <c r="A57" s="396"/>
       <c r="B57" s="26"/>
       <c r="C57" s="240"/>
       <c r="D57" s="240"/>
@@ -6052,7 +6049,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="397"/>
+      <c r="A58" s="396"/>
       <c r="B58" s="26"/>
       <c r="C58" s="240"/>
       <c r="D58" s="240"/>
@@ -6063,7 +6060,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="397"/>
+      <c r="A59" s="396"/>
       <c r="B59" s="26"/>
       <c r="C59" s="240"/>
       <c r="D59" s="240"/>
@@ -6074,7 +6071,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="397"/>
+      <c r="A60" s="396"/>
       <c r="B60" s="26"/>
       <c r="C60" s="240"/>
       <c r="D60" s="240"/>
@@ -6085,7 +6082,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="397"/>
+      <c r="A61" s="396"/>
       <c r="B61" s="26"/>
       <c r="C61" s="240"/>
       <c r="D61" s="240"/>
@@ -6096,7 +6093,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="397"/>
+      <c r="A62" s="396"/>
       <c r="B62" s="26"/>
       <c r="C62" s="240"/>
       <c r="D62" s="240"/>
@@ -6107,7 +6104,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="397"/>
+      <c r="A63" s="396"/>
       <c r="B63" s="26"/>
       <c r="C63" s="240"/>
       <c r="D63" s="240"/>
@@ -6118,7 +6115,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="397"/>
+      <c r="A64" s="396"/>
       <c r="B64" s="26"/>
       <c r="C64" s="240"/>
       <c r="D64" s="240"/>
@@ -6129,7 +6126,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="397"/>
+      <c r="A65" s="396"/>
       <c r="B65" s="26"/>
       <c r="C65" s="240"/>
       <c r="D65" s="240"/>
@@ -6140,7 +6137,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="397"/>
+      <c r="A66" s="396"/>
       <c r="B66" s="26"/>
       <c r="C66" s="240"/>
       <c r="D66" s="240"/>
@@ -6151,7 +6148,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="397"/>
+      <c r="A67" s="396"/>
       <c r="B67" s="26"/>
       <c r="C67" s="240"/>
       <c r="D67" s="240"/>
@@ -6162,7 +6159,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="397"/>
+      <c r="A68" s="396"/>
       <c r="B68" s="26"/>
       <c r="C68" s="240"/>
       <c r="D68" s="240"/>
@@ -6173,7 +6170,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="397"/>
+      <c r="A69" s="396"/>
       <c r="B69" s="26"/>
       <c r="C69" s="240"/>
       <c r="D69" s="240"/>
@@ -6184,7 +6181,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="397"/>
+      <c r="A70" s="396"/>
       <c r="B70" s="26"/>
       <c r="C70" s="240"/>
       <c r="D70" s="240"/>
@@ -6195,7 +6192,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="397"/>
+      <c r="A71" s="396"/>
       <c r="B71" s="26"/>
       <c r="C71" s="240"/>
       <c r="D71" s="240"/>
@@ -6206,7 +6203,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="397"/>
+      <c r="A72" s="396"/>
       <c r="B72" s="26"/>
       <c r="C72" s="240"/>
       <c r="D72" s="240"/>
@@ -6217,7 +6214,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="397"/>
+      <c r="A73" s="396"/>
       <c r="B73" s="26"/>
       <c r="C73" s="240"/>
       <c r="D73" s="240"/>
@@ -6228,7 +6225,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="397"/>
+      <c r="A74" s="396"/>
       <c r="B74" s="26"/>
       <c r="C74" s="240"/>
       <c r="D74" s="240"/>
@@ -6239,7 +6236,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="397"/>
+      <c r="A75" s="396"/>
       <c r="B75" s="26"/>
       <c r="C75" s="240"/>
       <c r="D75" s="240"/>
@@ -6250,7 +6247,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="397"/>
+      <c r="A76" s="396"/>
       <c r="B76" s="26"/>
       <c r="C76" s="240"/>
       <c r="D76" s="240"/>
@@ -6261,7 +6258,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="397"/>
+      <c r="A77" s="396"/>
       <c r="B77" s="26"/>
       <c r="C77" s="240"/>
       <c r="D77" s="240"/>
@@ -6272,7 +6269,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="397"/>
+      <c r="A78" s="396"/>
       <c r="B78" s="26"/>
       <c r="C78" s="240"/>
       <c r="D78" s="240"/>
@@ -6283,7 +6280,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="397"/>
+      <c r="A79" s="396"/>
       <c r="B79" s="26"/>
       <c r="C79" s="240"/>
       <c r="D79" s="240"/>
@@ -6295,7 +6292,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="397"/>
+      <c r="A80" s="396"/>
       <c r="B80" s="26"/>
       <c r="C80" s="240"/>
       <c r="D80" s="240"/>
@@ -6307,7 +6304,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="397"/>
+      <c r="A81" s="396"/>
       <c r="B81" s="26"/>
       <c r="C81" s="240"/>
       <c r="D81" s="240"/>
@@ -6319,7 +6316,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="397"/>
+      <c r="A82" s="396"/>
       <c r="B82" s="26"/>
       <c r="C82" s="240"/>
       <c r="D82" s="240"/>
@@ -6331,7 +6328,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="397"/>
+      <c r="A83" s="396"/>
       <c r="B83" s="31"/>
       <c r="C83" s="241">
         <f>SUM(C5:C72)</f>
@@ -6394,67 +6391,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="406" t="s">
+      <c r="A1" s="405" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="406"/>
-      <c r="C1" s="406"/>
-      <c r="D1" s="406"/>
-      <c r="E1" s="406"/>
-      <c r="F1" s="406"/>
-      <c r="G1" s="406"/>
-      <c r="H1" s="406"/>
-      <c r="I1" s="406"/>
-      <c r="J1" s="406"/>
-      <c r="K1" s="406"/>
-      <c r="L1" s="406"/>
-      <c r="M1" s="406"/>
-      <c r="N1" s="406"/>
-      <c r="O1" s="406"/>
-      <c r="P1" s="406"/>
-      <c r="Q1" s="406"/>
+      <c r="B1" s="405"/>
+      <c r="C1" s="405"/>
+      <c r="D1" s="405"/>
+      <c r="E1" s="405"/>
+      <c r="F1" s="405"/>
+      <c r="G1" s="405"/>
+      <c r="H1" s="405"/>
+      <c r="I1" s="405"/>
+      <c r="J1" s="405"/>
+      <c r="K1" s="405"/>
+      <c r="L1" s="405"/>
+      <c r="M1" s="405"/>
+      <c r="N1" s="405"/>
+      <c r="O1" s="405"/>
+      <c r="P1" s="405"/>
+      <c r="Q1" s="405"/>
     </row>
     <row r="2" spans="1:24" s="61" customFormat="1" ht="18">
-      <c r="A2" s="407" t="s">
+      <c r="A2" s="406" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="407"/>
-      <c r="C2" s="407"/>
-      <c r="D2" s="407"/>
-      <c r="E2" s="407"/>
-      <c r="F2" s="407"/>
-      <c r="G2" s="407"/>
-      <c r="H2" s="407"/>
-      <c r="I2" s="407"/>
-      <c r="J2" s="407"/>
-      <c r="K2" s="407"/>
-      <c r="L2" s="407"/>
-      <c r="M2" s="407"/>
-      <c r="N2" s="407"/>
-      <c r="O2" s="407"/>
-      <c r="P2" s="407"/>
-      <c r="Q2" s="407"/>
+      <c r="B2" s="406"/>
+      <c r="C2" s="406"/>
+      <c r="D2" s="406"/>
+      <c r="E2" s="406"/>
+      <c r="F2" s="406"/>
+      <c r="G2" s="406"/>
+      <c r="H2" s="406"/>
+      <c r="I2" s="406"/>
+      <c r="J2" s="406"/>
+      <c r="K2" s="406"/>
+      <c r="L2" s="406"/>
+      <c r="M2" s="406"/>
+      <c r="N2" s="406"/>
+      <c r="O2" s="406"/>
+      <c r="P2" s="406"/>
+      <c r="Q2" s="406"/>
     </row>
     <row r="3" spans="1:24" s="62" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="408" t="s">
+      <c r="A3" s="407" t="s">
         <v>191</v>
       </c>
-      <c r="B3" s="409"/>
-      <c r="C3" s="409"/>
-      <c r="D3" s="409"/>
-      <c r="E3" s="409"/>
-      <c r="F3" s="409"/>
-      <c r="G3" s="409"/>
-      <c r="H3" s="409"/>
-      <c r="I3" s="409"/>
-      <c r="J3" s="409"/>
-      <c r="K3" s="409"/>
-      <c r="L3" s="409"/>
-      <c r="M3" s="409"/>
-      <c r="N3" s="409"/>
-      <c r="O3" s="409"/>
-      <c r="P3" s="409"/>
-      <c r="Q3" s="410"/>
+      <c r="B3" s="408"/>
+      <c r="C3" s="408"/>
+      <c r="D3" s="408"/>
+      <c r="E3" s="408"/>
+      <c r="F3" s="408"/>
+      <c r="G3" s="408"/>
+      <c r="H3" s="408"/>
+      <c r="I3" s="408"/>
+      <c r="J3" s="408"/>
+      <c r="K3" s="408"/>
+      <c r="L3" s="408"/>
+      <c r="M3" s="408"/>
+      <c r="N3" s="408"/>
+      <c r="O3" s="408"/>
+      <c r="P3" s="408"/>
+      <c r="Q3" s="409"/>
       <c r="S3" s="46"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6463,52 +6460,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="63" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="411" t="s">
+      <c r="A4" s="410" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="413" t="s">
+      <c r="B4" s="412" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="398" t="s">
+      <c r="C4" s="397" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="398" t="s">
+      <c r="D4" s="397" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="398" t="s">
+      <c r="E4" s="397" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="398" t="s">
+      <c r="F4" s="397" t="s">
         <v>104</v>
       </c>
-      <c r="G4" s="398" t="s">
+      <c r="G4" s="397" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="398" t="s">
+      <c r="H4" s="397" t="s">
         <v>225</v>
       </c>
-      <c r="I4" s="398" t="s">
+      <c r="I4" s="397" t="s">
         <v>224</v>
       </c>
-      <c r="J4" s="398" t="s">
+      <c r="J4" s="397" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="398" t="s">
+      <c r="K4" s="397" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="398" t="s">
+      <c r="L4" s="397" t="s">
         <v>128</v>
       </c>
-      <c r="M4" s="398" t="s">
+      <c r="M4" s="397" t="s">
         <v>162</v>
       </c>
-      <c r="N4" s="398" t="s">
+      <c r="N4" s="397" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="404" t="s">
+      <c r="O4" s="403" t="s">
         <v>141</v>
       </c>
-      <c r="P4" s="415" t="s">
+      <c r="P4" s="414" t="s">
         <v>171</v>
       </c>
       <c r="Q4" s="120" t="s">
@@ -6521,22 +6518,22 @@
       <c r="W4" s="65"/>
     </row>
     <row r="5" spans="1:24" s="63" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="412"/>
-      <c r="B5" s="414"/>
-      <c r="C5" s="399"/>
-      <c r="D5" s="399"/>
-      <c r="E5" s="399"/>
-      <c r="F5" s="399"/>
-      <c r="G5" s="399"/>
-      <c r="H5" s="399"/>
-      <c r="I5" s="399"/>
-      <c r="J5" s="399"/>
-      <c r="K5" s="399"/>
-      <c r="L5" s="399"/>
-      <c r="M5" s="399"/>
-      <c r="N5" s="399"/>
-      <c r="O5" s="405"/>
-      <c r="P5" s="416"/>
+      <c r="A5" s="411"/>
+      <c r="B5" s="413"/>
+      <c r="C5" s="398"/>
+      <c r="D5" s="398"/>
+      <c r="E5" s="398"/>
+      <c r="F5" s="398"/>
+      <c r="G5" s="398"/>
+      <c r="H5" s="398"/>
+      <c r="I5" s="398"/>
+      <c r="J5" s="398"/>
+      <c r="K5" s="398"/>
+      <c r="L5" s="398"/>
+      <c r="M5" s="398"/>
+      <c r="N5" s="398"/>
+      <c r="O5" s="404"/>
+      <c r="P5" s="415"/>
       <c r="Q5" s="121" t="s">
         <v>36</v>
       </c>
@@ -7236,12 +7233,12 @@
         <v>0</v>
       </c>
       <c r="R24" s="76"/>
-      <c r="S24" s="400" t="s">
+      <c r="S24" s="399" t="s">
         <v>186</v>
       </c>
-      <c r="T24" s="400"/>
-      <c r="U24" s="400"/>
-      <c r="V24" s="400"/>
+      <c r="T24" s="399"/>
+      <c r="U24" s="399"/>
+      <c r="V24" s="399"/>
       <c r="W24" s="87"/>
     </row>
     <row r="25" spans="1:23" s="86" customFormat="1">
@@ -7266,16 +7263,16 @@
         <v>0</v>
       </c>
       <c r="R25" s="85"/>
-      <c r="S25" s="350" t="s">
+      <c r="S25" s="349" t="s">
         <v>187</v>
       </c>
-      <c r="T25" s="348">
+      <c r="T25" s="347">
         <v>9</v>
       </c>
-      <c r="U25" s="348">
+      <c r="U25" s="347">
         <v>500</v>
       </c>
-      <c r="V25" s="348">
+      <c r="V25" s="347">
         <f>U25*T25</f>
         <v>4500</v>
       </c>
@@ -7302,16 +7299,16 @@
         <v>0</v>
       </c>
       <c r="R26" s="76"/>
-      <c r="S26" s="350" t="s">
+      <c r="S26" s="349" t="s">
         <v>188</v>
       </c>
-      <c r="T26" s="348">
+      <c r="T26" s="347">
         <v>2</v>
       </c>
-      <c r="U26" s="348">
+      <c r="U26" s="347">
         <v>200</v>
       </c>
-      <c r="V26" s="348">
+      <c r="V26" s="347">
         <f>U26*T26</f>
         <v>400</v>
       </c>
@@ -7338,12 +7335,12 @@
         <v>0</v>
       </c>
       <c r="R27" s="76"/>
-      <c r="S27" s="401" t="s">
+      <c r="S27" s="400" t="s">
         <v>80</v>
       </c>
-      <c r="T27" s="402"/>
-      <c r="U27" s="403"/>
-      <c r="V27" s="351">
+      <c r="T27" s="401"/>
+      <c r="U27" s="402"/>
+      <c r="V27" s="350">
         <f>SUM(V25:V26)</f>
         <v>4900</v>
       </c>
@@ -9668,8 +9665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72:D73"/>
+    <sheetView topLeftCell="A110" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9696,15 +9693,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="422" t="s">
+      <c r="A1" s="421" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="422"/>
-      <c r="C1" s="422"/>
-      <c r="D1" s="422"/>
-      <c r="E1" s="422"/>
-      <c r="F1" s="422"/>
-      <c r="G1" s="422"/>
+      <c r="B1" s="421"/>
+      <c r="C1" s="421"/>
+      <c r="D1" s="421"/>
+      <c r="E1" s="421"/>
+      <c r="F1" s="421"/>
+      <c r="G1" s="421"/>
       <c r="H1" s="56"/>
       <c r="I1" s="137"/>
       <c r="J1" s="137"/>
@@ -9797,15 +9794,15 @@
       <c r="CS1" s="132"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="423" t="s">
+      <c r="A2" s="422" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="423"/>
-      <c r="C2" s="423"/>
-      <c r="D2" s="423"/>
-      <c r="E2" s="423"/>
-      <c r="F2" s="423"/>
-      <c r="G2" s="423"/>
+      <c r="B2" s="422"/>
+      <c r="C2" s="422"/>
+      <c r="D2" s="422"/>
+      <c r="E2" s="422"/>
+      <c r="F2" s="422"/>
+      <c r="G2" s="422"/>
       <c r="H2" s="56"/>
       <c r="I2" s="137"/>
       <c r="J2" s="137"/>
@@ -9898,15 +9895,15 @@
       <c r="CS2" s="132"/>
     </row>
     <row r="3" spans="1:97">
-      <c r="A3" s="424" t="s">
+      <c r="A3" s="423" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="424"/>
-      <c r="C3" s="424"/>
-      <c r="D3" s="424"/>
-      <c r="E3" s="424"/>
-      <c r="F3" s="424"/>
-      <c r="G3" s="424"/>
+      <c r="B3" s="423"/>
+      <c r="C3" s="423"/>
+      <c r="D3" s="423"/>
+      <c r="E3" s="423"/>
+      <c r="F3" s="423"/>
+      <c r="G3" s="423"/>
       <c r="H3" s="56"/>
       <c r="I3" s="137"/>
       <c r="J3" s="137"/>
@@ -11989,14 +11986,14 @@
         <v>186760</v>
       </c>
       <c r="C22" s="48">
-        <v>250430</v>
+        <v>210810</v>
       </c>
       <c r="D22" s="45">
         <v>720</v>
       </c>
       <c r="E22" s="45">
         <f t="shared" si="1"/>
-        <v>251150</v>
+        <v>211530</v>
       </c>
       <c r="F22" s="223"/>
       <c r="G22" s="233"/>
@@ -13121,7 +13118,7 @@
       </c>
       <c r="C33" s="245">
         <f>SUM(C5:C32)</f>
-        <v>10960991</v>
+        <v>10921371</v>
       </c>
       <c r="D33" s="244">
         <f>SUM(D5:D32)</f>
@@ -13129,11 +13126,11 @@
       </c>
       <c r="E33" s="244">
         <f>SUM(E5:E32)</f>
-        <v>10993986</v>
+        <v>10954366</v>
       </c>
       <c r="F33" s="244">
         <f>B33-E33</f>
-        <v>-848176</v>
+        <v>-808556</v>
       </c>
       <c r="G33" s="246"/>
       <c r="H33" s="133"/>
@@ -13328,12 +13325,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="127"/>
-      <c r="B35" s="419" t="s">
+      <c r="B35" s="418" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="419"/>
-      <c r="D35" s="419"/>
-      <c r="E35" s="419"/>
+      <c r="C35" s="418"/>
+      <c r="D35" s="418"/>
+      <c r="E35" s="418"/>
       <c r="F35" s="128"/>
       <c r="G35" s="133"/>
       <c r="H35" s="133"/>
@@ -13543,7 +13540,7 @@
       <c r="A37" s="178" t="s">
         <v>118</v>
       </c>
-      <c r="B37" s="327" t="s">
+      <c r="B37" s="326" t="s">
         <v>125</v>
       </c>
       <c r="C37" s="122" t="s">
@@ -13552,7 +13549,7 @@
       <c r="D37" s="200">
         <v>16000</v>
       </c>
-      <c r="E37" s="328" t="s">
+      <c r="E37" s="327" t="s">
         <v>232</v>
       </c>
       <c r="F37" s="128"/>
@@ -14097,10 +14094,10 @@
         <v>219</v>
       </c>
       <c r="D42" s="201">
-        <v>7000</v>
+        <v>11130</v>
       </c>
       <c r="E42" s="170" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F42" s="132"/>
       <c r="G42" s="141" t="s">
@@ -14204,10 +14201,10 @@
       <c r="D43" s="201"/>
       <c r="E43" s="171"/>
       <c r="F43" s="128"/>
-      <c r="G43" s="420"/>
-      <c r="H43" s="420"/>
-      <c r="I43" s="420"/>
-      <c r="J43" s="420"/>
+      <c r="G43" s="419"/>
+      <c r="H43" s="419"/>
+      <c r="I43" s="419"/>
+      <c r="J43" s="419"/>
       <c r="K43" s="56"/>
       <c r="L43" s="137"/>
       <c r="M43" s="56"/>
@@ -14517,17 +14514,17 @@
       <c r="CS45" s="132"/>
     </row>
     <row r="46" spans="1:97">
-      <c r="A46" s="312" t="s">
+      <c r="A46" s="311" t="s">
         <v>220</v>
       </c>
-      <c r="B46" s="386" t="s">
+      <c r="B46" s="385" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="313"/>
-      <c r="D46" s="314">
+      <c r="C46" s="312"/>
+      <c r="D46" s="313">
         <v>50000</v>
       </c>
-      <c r="E46" s="315" t="s">
+      <c r="E46" s="314" t="s">
         <v>218</v>
       </c>
       <c r="F46" s="125"/>
@@ -14637,17 +14634,17 @@
       <c r="CS46" s="132"/>
     </row>
     <row r="47" spans="1:97">
-      <c r="A47" s="312" t="s">
+      <c r="A47" s="311" t="s">
         <v>85</v>
       </c>
-      <c r="B47" s="323" t="s">
+      <c r="B47" s="322" t="s">
         <v>132</v>
       </c>
-      <c r="C47" s="317"/>
-      <c r="D47" s="324">
+      <c r="C47" s="316"/>
+      <c r="D47" s="323">
         <v>100000</v>
       </c>
-      <c r="E47" s="319" t="s">
+      <c r="E47" s="318" t="s">
         <v>200</v>
       </c>
       <c r="F47" s="126"/>
@@ -14755,17 +14752,17 @@
       <c r="CS47" s="132"/>
     </row>
     <row r="48" spans="1:97">
-      <c r="A48" s="312" t="s">
+      <c r="A48" s="311" t="s">
         <v>227</v>
       </c>
-      <c r="B48" s="320" t="s">
+      <c r="B48" s="319" t="s">
         <v>228</v>
       </c>
-      <c r="C48" s="317"/>
-      <c r="D48" s="318">
+      <c r="C48" s="316"/>
+      <c r="D48" s="317">
         <v>2000</v>
       </c>
-      <c r="E48" s="319" t="s">
+      <c r="E48" s="318" t="s">
         <v>226</v>
       </c>
       <c r="F48" s="126"/>
@@ -14873,17 +14870,17 @@
       <c r="CS48" s="132"/>
     </row>
     <row r="49" spans="1:97">
-      <c r="A49" s="312" t="s">
+      <c r="A49" s="311" t="s">
         <v>74</v>
       </c>
-      <c r="B49" s="320" t="s">
+      <c r="B49" s="319" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="317"/>
-      <c r="D49" s="318">
+      <c r="C49" s="316"/>
+      <c r="D49" s="317">
         <v>240000</v>
       </c>
-      <c r="E49" s="319" t="s">
+      <c r="E49" s="318" t="s">
         <v>232</v>
       </c>
       <c r="F49" s="126"/>
@@ -14991,17 +14988,17 @@
       <c r="CS49" s="132"/>
     </row>
     <row r="50" spans="1:97">
-      <c r="A50" s="312" t="s">
+      <c r="A50" s="311" t="s">
         <v>88</v>
       </c>
-      <c r="B50" s="321" t="s">
+      <c r="B50" s="320" t="s">
         <v>89</v>
       </c>
-      <c r="C50" s="317"/>
-      <c r="D50" s="318">
+      <c r="C50" s="316"/>
+      <c r="D50" s="317">
         <v>170000</v>
       </c>
-      <c r="E50" s="322" t="s">
+      <c r="E50" s="321" t="s">
         <v>212</v>
       </c>
       <c r="F50" s="126"/>
@@ -15109,17 +15106,17 @@
       <c r="CS50" s="132"/>
     </row>
     <row r="51" spans="1:97">
-      <c r="A51" s="312" t="s">
+      <c r="A51" s="311" t="s">
         <v>88</v>
       </c>
-      <c r="B51" s="320" t="s">
+      <c r="B51" s="319" t="s">
         <v>99</v>
       </c>
-      <c r="C51" s="317"/>
-      <c r="D51" s="318">
+      <c r="C51" s="316"/>
+      <c r="D51" s="317">
         <v>250820</v>
       </c>
-      <c r="E51" s="319" t="s">
+      <c r="E51" s="318" t="s">
         <v>239</v>
       </c>
       <c r="F51" s="126"/>
@@ -15227,11 +15224,11 @@
       <c r="CS51" s="132"/>
     </row>
     <row r="52" spans="1:97">
-      <c r="A52" s="312"/>
-      <c r="B52" s="316"/>
-      <c r="C52" s="317"/>
-      <c r="D52" s="318"/>
-      <c r="E52" s="319"/>
+      <c r="A52" s="311"/>
+      <c r="B52" s="315"/>
+      <c r="C52" s="316"/>
+      <c r="D52" s="317"/>
+      <c r="E52" s="318"/>
       <c r="F52" s="126"/>
       <c r="G52" s="132"/>
       <c r="H52" s="181"/>
@@ -15329,11 +15326,11 @@
       <c r="CS52" s="132"/>
     </row>
     <row r="53" spans="1:97">
-      <c r="A53" s="312"/>
-      <c r="B53" s="320"/>
-      <c r="C53" s="317"/>
-      <c r="D53" s="318"/>
-      <c r="E53" s="322"/>
+      <c r="A53" s="311"/>
+      <c r="B53" s="319"/>
+      <c r="C53" s="316"/>
+      <c r="D53" s="317"/>
+      <c r="E53" s="321"/>
       <c r="F53" s="126"/>
       <c r="G53" s="132"/>
       <c r="H53" s="181"/>
@@ -15431,11 +15428,11 @@
       <c r="CS53" s="132"/>
     </row>
     <row r="54" spans="1:97">
-      <c r="A54" s="312"/>
-      <c r="B54" s="320"/>
-      <c r="C54" s="317"/>
-      <c r="D54" s="318"/>
-      <c r="E54" s="322"/>
+      <c r="A54" s="311"/>
+      <c r="B54" s="319"/>
+      <c r="C54" s="316"/>
+      <c r="D54" s="317"/>
+      <c r="E54" s="321"/>
       <c r="F54" s="126"/>
       <c r="G54" s="132"/>
       <c r="H54" s="183"/>
@@ -15533,11 +15530,11 @@
       <c r="CS54" s="132"/>
     </row>
     <row r="55" spans="1:97">
-      <c r="A55" s="312"/>
-      <c r="B55" s="316"/>
-      <c r="C55" s="317"/>
-      <c r="D55" s="318"/>
-      <c r="E55" s="322"/>
+      <c r="A55" s="311"/>
+      <c r="B55" s="315"/>
+      <c r="C55" s="316"/>
+      <c r="D55" s="317"/>
+      <c r="E55" s="321"/>
       <c r="F55" s="126"/>
       <c r="G55" s="132"/>
       <c r="H55" s="181"/>
@@ -15635,11 +15632,11 @@
       <c r="CS55" s="132"/>
     </row>
     <row r="56" spans="1:97">
-      <c r="A56" s="325"/>
-      <c r="B56" s="323"/>
-      <c r="C56" s="317"/>
-      <c r="D56" s="318"/>
-      <c r="E56" s="322"/>
+      <c r="A56" s="324"/>
+      <c r="B56" s="322"/>
+      <c r="C56" s="316"/>
+      <c r="D56" s="317"/>
+      <c r="E56" s="321"/>
       <c r="F56" s="126"/>
       <c r="G56" s="132"/>
       <c r="H56" s="181"/>
@@ -15737,17 +15734,17 @@
       <c r="CS56" s="132"/>
     </row>
     <row r="57" spans="1:97">
-      <c r="A57" s="295" t="s">
+      <c r="A57" s="294" t="s">
         <v>82</v>
       </c>
-      <c r="B57" s="296" t="s">
+      <c r="B57" s="295" t="s">
         <v>83</v>
       </c>
-      <c r="C57" s="297"/>
-      <c r="D57" s="298">
+      <c r="C57" s="296"/>
+      <c r="D57" s="297">
         <v>216770</v>
       </c>
-      <c r="E57" s="299" t="s">
+      <c r="E57" s="298" t="s">
         <v>212</v>
       </c>
       <c r="F57" s="126"/>
@@ -15855,17 +15852,17 @@
       <c r="CS57" s="132"/>
     </row>
     <row r="58" spans="1:97">
-      <c r="A58" s="295" t="s">
+      <c r="A58" s="294" t="s">
         <v>82</v>
       </c>
-      <c r="B58" s="296" t="s">
+      <c r="B58" s="295" t="s">
         <v>101</v>
       </c>
-      <c r="C58" s="297"/>
-      <c r="D58" s="298">
+      <c r="C58" s="296"/>
+      <c r="D58" s="297">
         <v>50000</v>
       </c>
-      <c r="E58" s="300" t="s">
+      <c r="E58" s="299" t="s">
         <v>200</v>
       </c>
       <c r="F58" s="126"/>
@@ -15973,17 +15970,17 @@
       <c r="CS58" s="132"/>
     </row>
     <row r="59" spans="1:97">
-      <c r="A59" s="295" t="s">
+      <c r="A59" s="294" t="s">
         <v>82</v>
       </c>
-      <c r="B59" s="296" t="s">
+      <c r="B59" s="295" t="s">
         <v>108</v>
       </c>
-      <c r="C59" s="297"/>
-      <c r="D59" s="298">
+      <c r="C59" s="296"/>
+      <c r="D59" s="297">
         <v>50000</v>
       </c>
-      <c r="E59" s="300" t="s">
+      <c r="E59" s="299" t="s">
         <v>232</v>
       </c>
       <c r="F59" s="126"/>
@@ -16091,17 +16088,17 @@
       <c r="CS59" s="132"/>
     </row>
     <row r="60" spans="1:97">
-      <c r="A60" s="295" t="s">
+      <c r="A60" s="294" t="s">
         <v>82</v>
       </c>
-      <c r="B60" s="301" t="s">
+      <c r="B60" s="300" t="s">
         <v>154</v>
       </c>
-      <c r="C60" s="297"/>
-      <c r="D60" s="298">
+      <c r="C60" s="296"/>
+      <c r="D60" s="297">
         <v>107090</v>
       </c>
-      <c r="E60" s="299" t="s">
+      <c r="E60" s="298" t="s">
         <v>232</v>
       </c>
       <c r="F60" s="126"/>
@@ -16211,17 +16208,17 @@
       <c r="CS60" s="132"/>
     </row>
     <row r="61" spans="1:97">
-      <c r="A61" s="295" t="s">
+      <c r="A61" s="294" t="s">
         <v>92</v>
       </c>
-      <c r="B61" s="302" t="s">
+      <c r="B61" s="301" t="s">
         <v>93</v>
       </c>
-      <c r="C61" s="297"/>
-      <c r="D61" s="298">
+      <c r="C61" s="296"/>
+      <c r="D61" s="297">
         <v>50000</v>
       </c>
-      <c r="E61" s="300" t="s">
+      <c r="E61" s="299" t="s">
         <v>122</v>
       </c>
       <c r="F61" s="128"/>
@@ -16329,17 +16326,17 @@
       <c r="CS61" s="132"/>
     </row>
     <row r="62" spans="1:97">
-      <c r="A62" s="295" t="s">
+      <c r="A62" s="294" t="s">
         <v>69</v>
       </c>
-      <c r="B62" s="296" t="s">
+      <c r="B62" s="295" t="s">
         <v>70</v>
       </c>
-      <c r="C62" s="297"/>
-      <c r="D62" s="298">
+      <c r="C62" s="296"/>
+      <c r="D62" s="297">
         <v>111000</v>
       </c>
-      <c r="E62" s="300" t="s">
+      <c r="E62" s="299" t="s">
         <v>211</v>
       </c>
       <c r="F62" s="125"/>
@@ -16447,17 +16444,17 @@
       <c r="CS62" s="132"/>
     </row>
     <row r="63" spans="1:97">
-      <c r="A63" s="295" t="s">
+      <c r="A63" s="294" t="s">
         <v>69</v>
       </c>
-      <c r="B63" s="296" t="s">
+      <c r="B63" s="295" t="s">
         <v>95</v>
       </c>
-      <c r="C63" s="297"/>
-      <c r="D63" s="298">
+      <c r="C63" s="296"/>
+      <c r="D63" s="297">
         <v>40000</v>
       </c>
-      <c r="E63" s="311" t="s">
+      <c r="E63" s="310" t="s">
         <v>156</v>
       </c>
       <c r="F63" s="126"/>
@@ -16565,17 +16562,17 @@
       <c r="CS63" s="132"/>
     </row>
     <row r="64" spans="1:97">
-      <c r="A64" s="295" t="s">
+      <c r="A64" s="294" t="s">
         <v>69</v>
       </c>
-      <c r="B64" s="302" t="s">
+      <c r="B64" s="301" t="s">
         <v>116</v>
       </c>
-      <c r="C64" s="297"/>
-      <c r="D64" s="298">
+      <c r="C64" s="296"/>
+      <c r="D64" s="297">
         <v>200000</v>
       </c>
-      <c r="E64" s="299" t="s">
+      <c r="E64" s="298" t="s">
         <v>217</v>
       </c>
       <c r="F64" s="126"/>
@@ -16683,11 +16680,11 @@
       <c r="CS64" s="132"/>
     </row>
     <row r="65" spans="1:97">
-      <c r="A65" s="295"/>
-      <c r="B65" s="296"/>
-      <c r="C65" s="297"/>
-      <c r="D65" s="298"/>
-      <c r="E65" s="300"/>
+      <c r="A65" s="294"/>
+      <c r="B65" s="295"/>
+      <c r="C65" s="296"/>
+      <c r="D65" s="297"/>
+      <c r="E65" s="299"/>
       <c r="F65" s="126"/>
       <c r="G65" s="132"/>
       <c r="H65" s="181"/>
@@ -16785,11 +16782,11 @@
       <c r="CS65" s="132"/>
     </row>
     <row r="66" spans="1:97">
-      <c r="A66" s="295"/>
-      <c r="B66" s="296"/>
-      <c r="C66" s="297"/>
-      <c r="D66" s="298"/>
-      <c r="E66" s="299"/>
+      <c r="A66" s="294"/>
+      <c r="B66" s="295"/>
+      <c r="C66" s="296"/>
+      <c r="D66" s="297"/>
+      <c r="E66" s="298"/>
       <c r="F66" s="126"/>
       <c r="G66" s="132"/>
       <c r="H66" s="181"/>
@@ -16887,11 +16884,11 @@
       <c r="CS66" s="132"/>
     </row>
     <row r="67" spans="1:97">
-      <c r="A67" s="295"/>
-      <c r="B67" s="296"/>
-      <c r="C67" s="297"/>
-      <c r="D67" s="298"/>
-      <c r="E67" s="300"/>
+      <c r="A67" s="294"/>
+      <c r="B67" s="295"/>
+      <c r="C67" s="296"/>
+      <c r="D67" s="297"/>
+      <c r="E67" s="299"/>
       <c r="F67" s="126"/>
       <c r="G67" s="132"/>
       <c r="H67" s="181"/>
@@ -16992,14 +16989,14 @@
       <c r="A68" s="288" t="s">
         <v>65</v>
       </c>
-      <c r="B68" s="294" t="s">
+      <c r="B68" s="289" t="s">
         <v>71</v>
       </c>
       <c r="C68" s="290"/>
       <c r="D68" s="291">
         <v>165040</v>
       </c>
-      <c r="E68" s="292" t="s">
+      <c r="E68" s="293" t="s">
         <v>239</v>
       </c>
       <c r="F68" s="126"/>
@@ -17117,12 +17114,10 @@
       <c r="D69" s="291">
         <v>333270</v>
       </c>
-      <c r="E69" s="303" t="s">
+      <c r="E69" s="293" t="s">
         <v>235</v>
       </c>
-      <c r="F69" s="56">
-        <v>332420</v>
-      </c>
+      <c r="F69" s="56"/>
       <c r="G69" s="132"/>
       <c r="H69" s="181" t="s">
         <v>66</v>
@@ -17235,13 +17230,13 @@
       </c>
       <c r="C70" s="290"/>
       <c r="D70" s="291">
-        <v>305500</v>
+        <v>301370</v>
       </c>
       <c r="E70" s="293" t="s">
         <v>239</v>
       </c>
-      <c r="F70" s="335"/>
-      <c r="G70" s="341"/>
+      <c r="F70" s="334"/>
+      <c r="G70" s="340"/>
       <c r="H70" s="169" t="s">
         <v>87</v>
       </c>
@@ -17355,12 +17350,12 @@
       <c r="D71" s="291">
         <v>67440</v>
       </c>
-      <c r="E71" s="293" t="s">
+      <c r="E71" s="302" t="s">
         <v>231</v>
       </c>
-      <c r="F71" s="335"/>
+      <c r="F71" s="334"/>
       <c r="G71" s="56"/>
-      <c r="H71" s="345" t="s">
+      <c r="H71" s="344" t="s">
         <v>131</v>
       </c>
       <c r="I71" s="54"/>
@@ -17471,14 +17466,12 @@
       </c>
       <c r="C72" s="290"/>
       <c r="D72" s="291">
-        <v>234770</v>
-      </c>
-      <c r="E72" s="303" t="s">
+        <v>242320</v>
+      </c>
+      <c r="E72" s="292" t="s">
         <v>239</v>
       </c>
-      <c r="F72" s="128">
-        <v>226660</v>
-      </c>
+      <c r="F72" s="128"/>
       <c r="G72" s="208"/>
       <c r="H72" s="169" t="s">
         <v>127</v>
@@ -17591,15 +17584,13 @@
       </c>
       <c r="C73" s="290"/>
       <c r="D73" s="291">
-        <v>208430</v>
+        <v>240500</v>
       </c>
       <c r="E73" s="293" t="s">
         <v>239</v>
       </c>
-      <c r="F73" s="128">
-        <v>236520</v>
-      </c>
-      <c r="G73" s="56"/>
+      <c r="F73" s="128"/>
+      <c r="G73" s="208"/>
       <c r="H73" s="181" t="s">
         <v>98</v>
       </c>
@@ -17713,10 +17704,10 @@
       <c r="D74" s="291">
         <v>15090</v>
       </c>
-      <c r="E74" s="292" t="s">
+      <c r="E74" s="293" t="s">
         <v>217</v>
       </c>
-      <c r="F74" s="335"/>
+      <c r="F74" s="334"/>
       <c r="G74" s="56"/>
       <c r="H74" s="169" t="s">
         <v>125</v>
@@ -17828,8 +17819,8 @@
       <c r="C75" s="290"/>
       <c r="D75" s="291"/>
       <c r="E75" s="293"/>
-      <c r="F75" s="335"/>
-      <c r="G75" s="341"/>
+      <c r="F75" s="334"/>
+      <c r="G75" s="340"/>
       <c r="H75" s="181" t="s">
         <v>136</v>
       </c>
@@ -18163,7 +18154,7 @@
       <c r="B78" s="289"/>
       <c r="C78" s="290"/>
       <c r="D78" s="291"/>
-      <c r="E78" s="303"/>
+      <c r="E78" s="302"/>
       <c r="F78" s="126"/>
       <c r="G78" s="132"/>
       <c r="H78" s="181" t="s">
@@ -22355,14 +22346,14 @@
       <c r="CS118" s="132"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="417" t="s">
+      <c r="A119" s="416" t="s">
         <v>25</v>
       </c>
-      <c r="B119" s="418"/>
-      <c r="C119" s="421"/>
+      <c r="B119" s="417"/>
+      <c r="C119" s="420"/>
       <c r="D119" s="205">
         <f>SUM(D37:D118)</f>
-        <v>3050630</v>
+        <v>3090250</v>
       </c>
       <c r="E119" s="199"/>
       <c r="F119" s="132"/>
@@ -22564,14 +22555,14 @@
       <c r="CS120" s="132"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="417" t="s">
+      <c r="A121" s="416" t="s">
         <v>26</v>
       </c>
-      <c r="B121" s="418"/>
-      <c r="C121" s="418"/>
+      <c r="B121" s="417"/>
+      <c r="C121" s="417"/>
       <c r="D121" s="205">
         <f>D119+M121</f>
-        <v>3050630</v>
+        <v>3090250</v>
       </c>
       <c r="E121" s="199"/>
       <c r="F121" s="132"/>
@@ -33802,8 +33793,8 @@
   </sheetPr>
   <dimension ref="A1:R217"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -33826,28 +33817,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.25">
-      <c r="A1" s="437" t="s">
+      <c r="A1" s="436" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="438"/>
-      <c r="C1" s="438"/>
-      <c r="D1" s="438"/>
-      <c r="E1" s="439"/>
+      <c r="B1" s="437"/>
+      <c r="C1" s="437"/>
+      <c r="D1" s="437"/>
+      <c r="E1" s="438"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="436"/>
-      <c r="J1" s="436"/>
-      <c r="K1" s="436"/>
+      <c r="I1" s="435"/>
+      <c r="J1" s="435"/>
+      <c r="K1" s="435"/>
     </row>
     <row r="2" spans="1:18" ht="20.25">
-      <c r="A2" s="446" t="s">
+      <c r="A2" s="445" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="447"/>
-      <c r="C2" s="447"/>
-      <c r="D2" s="447"/>
-      <c r="E2" s="448"/>
+      <c r="B2" s="446"/>
+      <c r="C2" s="446"/>
+      <c r="D2" s="446"/>
+      <c r="E2" s="447"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -33868,26 +33859,26 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="23.25">
-      <c r="A3" s="440" t="s">
+      <c r="A3" s="439" t="s">
         <v>242</v>
       </c>
-      <c r="B3" s="441"/>
-      <c r="C3" s="441"/>
-      <c r="D3" s="441"/>
-      <c r="E3" s="442"/>
+      <c r="B3" s="440"/>
+      <c r="C3" s="440"/>
+      <c r="D3" s="440"/>
+      <c r="E3" s="441"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="J3" s="346">
+      <c r="J3" s="345">
         <v>30000</v>
       </c>
-      <c r="K3" s="331">
+      <c r="K3" s="330">
         <v>10000</v>
       </c>
-      <c r="L3" s="346">
+      <c r="L3" s="345">
         <f>J3+K3</f>
         <v>40000</v>
       </c>
@@ -33901,26 +33892,26 @@
       <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18" ht="23.25">
-      <c r="A4" s="449" t="s">
+      <c r="A4" s="448" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="450"/>
-      <c r="C4" s="450"/>
-      <c r="D4" s="450"/>
-      <c r="E4" s="451"/>
+      <c r="B4" s="449"/>
+      <c r="C4" s="449"/>
+      <c r="D4" s="449"/>
+      <c r="E4" s="450"/>
       <c r="F4" s="5"/>
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
       <c r="I4" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="J4" s="346">
+      <c r="J4" s="345">
         <v>9000</v>
       </c>
-      <c r="K4" s="346">
+      <c r="K4" s="345">
         <v>5900</v>
       </c>
-      <c r="L4" s="346">
+      <c r="L4" s="345">
         <f t="shared" ref="L4:L16" si="0">J4+K4</f>
         <v>14900</v>
       </c>
@@ -33952,13 +33943,13 @@
       <c r="I5" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="J5" s="346">
+      <c r="J5" s="345">
         <v>24500</v>
       </c>
-      <c r="K5" s="331">
+      <c r="K5" s="330">
         <v>10000</v>
       </c>
-      <c r="L5" s="346">
+      <c r="L5" s="345">
         <f t="shared" si="0"/>
         <v>34500</v>
       </c>
@@ -33985,18 +33976,18 @@
         <v>966570</v>
       </c>
       <c r="F6" s="7"/>
-      <c r="G6" s="308"/>
+      <c r="G6" s="307"/>
       <c r="H6" s="248"/>
       <c r="I6" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="J6" s="346">
+      <c r="J6" s="345">
         <v>29500</v>
       </c>
-      <c r="K6" s="331">
+      <c r="K6" s="330">
         <v>10000</v>
       </c>
-      <c r="L6" s="346">
+      <c r="L6" s="345">
         <f t="shared" si="0"/>
         <v>39500</v>
       </c>
@@ -34016,28 +34007,28 @@
         <v>64</v>
       </c>
       <c r="E7" s="259">
-        <v>1425822</v>
+        <v>1165702</v>
       </c>
       <c r="F7" s="7"/>
-      <c r="G7" s="307"/>
+      <c r="G7" s="306"/>
       <c r="H7" s="248"/>
-      <c r="I7" s="346" t="s">
+      <c r="I7" s="345" t="s">
         <v>105</v>
       </c>
-      <c r="J7" s="346">
+      <c r="J7" s="345">
         <v>35000</v>
       </c>
-      <c r="K7" s="346">
+      <c r="K7" s="345">
         <v>10000</v>
       </c>
-      <c r="L7" s="346">
+      <c r="L7" s="345">
         <f t="shared" si="0"/>
         <v>45000</v>
       </c>
-      <c r="M7" s="346" t="s">
+      <c r="M7" s="345" t="s">
         <v>114</v>
       </c>
-      <c r="N7" s="347" t="s">
+      <c r="N7" s="346" t="s">
         <v>123</v>
       </c>
       <c r="P7" s="7"/>
@@ -34052,26 +34043,26 @@
         <v>31995</v>
       </c>
       <c r="C8" s="38"/>
-      <c r="D8" s="363"/>
+      <c r="D8" s="362"/>
       <c r="E8" s="259"/>
       <c r="F8" s="7"/>
       <c r="G8" s="229"/>
       <c r="H8" s="229"/>
-      <c r="I8" s="346" t="s">
+      <c r="I8" s="345" t="s">
         <v>105</v>
       </c>
-      <c r="J8" s="346"/>
-      <c r="K8" s="346">
+      <c r="J8" s="345"/>
+      <c r="K8" s="345">
         <v>10000</v>
       </c>
-      <c r="L8" s="346">
+      <c r="L8" s="345">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="M8" s="346" t="s">
+      <c r="M8" s="345" t="s">
         <v>87</v>
       </c>
-      <c r="N8" s="347" t="s">
+      <c r="N8" s="346" t="s">
         <v>129</v>
       </c>
       <c r="O8" s="7"/>
@@ -34087,32 +34078,32 @@
         <v>0</v>
       </c>
       <c r="C9" s="39"/>
-      <c r="D9" s="363" t="s">
+      <c r="D9" s="362" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="282">
-        <v>3050630</v>
+        <v>3090250</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="107"/>
       <c r="H9" s="107"/>
-      <c r="I9" s="346" t="s">
+      <c r="I9" s="345" t="s">
         <v>140</v>
       </c>
-      <c r="J9" s="346">
+      <c r="J9" s="345">
         <v>19250</v>
       </c>
-      <c r="K9" s="346">
+      <c r="K9" s="345">
         <v>0</v>
       </c>
-      <c r="L9" s="346">
+      <c r="L9" s="345">
         <f t="shared" si="0"/>
         <v>19250</v>
       </c>
       <c r="M9" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="N9" s="347" t="s">
+      <c r="N9" s="346" t="s">
         <v>139</v>
       </c>
       <c r="O9" s="7"/>
@@ -34121,18 +34112,18 @@
       <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:18" ht="23.25">
-      <c r="A10" s="388" t="s">
+      <c r="A10" s="387" t="s">
         <v>130</v>
       </c>
-      <c r="B10" s="389">
+      <c r="B10" s="388">
         <f>B6-B8-B9</f>
         <v>206015</v>
       </c>
       <c r="C10" s="39"/>
-      <c r="D10" s="363" t="s">
+      <c r="D10" s="362" t="s">
         <v>210</v>
       </c>
-      <c r="E10" s="370">
+      <c r="E10" s="369">
         <v>-2953135</v>
       </c>
       <c r="F10" s="7"/>
@@ -34141,13 +34132,13 @@
       <c r="I10" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="J10" s="346">
+      <c r="J10" s="345">
         <v>16500</v>
       </c>
-      <c r="K10" s="346">
+      <c r="K10" s="345">
         <v>0</v>
       </c>
-      <c r="L10" s="346">
+      <c r="L10" s="345">
         <f t="shared" si="0"/>
         <v>16500</v>
       </c>
@@ -34163,7 +34154,7 @@
       <c r="R10" s="7"/>
     </row>
     <row r="11" spans="1:18" ht="21.75">
-      <c r="A11" s="349" t="s">
+      <c r="A11" s="348" t="s">
         <v>237</v>
       </c>
       <c r="B11" s="237">
@@ -34177,7 +34168,7 @@
         <v>12</v>
       </c>
       <c r="H11" s="229"/>
-      <c r="I11" s="329" t="s">
+      <c r="I11" s="328" t="s">
         <v>105</v>
       </c>
       <c r="J11" s="31">
@@ -34186,14 +34177,14 @@
       <c r="K11" s="31">
         <v>10000</v>
       </c>
-      <c r="L11" s="346">
+      <c r="L11" s="345">
         <f t="shared" si="0"/>
         <v>39500</v>
       </c>
       <c r="M11" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="N11" s="329" t="s">
+      <c r="N11" s="328" t="s">
         <v>183</v>
       </c>
       <c r="O11" s="7"/>
@@ -34202,10 +34193,10 @@
       <c r="R11" s="7"/>
     </row>
     <row r="12" spans="1:18" ht="21.75">
-      <c r="A12" s="366" t="s">
+      <c r="A12" s="365" t="s">
         <v>238</v>
       </c>
-      <c r="B12" s="367">
+      <c r="B12" s="366">
         <f>B10+B11</f>
         <v>208532</v>
       </c>
@@ -34223,10 +34214,10 @@
       <c r="J12" s="31">
         <v>22500</v>
       </c>
-      <c r="K12" s="331">
+      <c r="K12" s="330">
         <v>10000</v>
       </c>
-      <c r="L12" s="346">
+      <c r="L12" s="345">
         <f t="shared" si="0"/>
         <v>32500</v>
       </c>
@@ -34242,26 +34233,26 @@
       <c r="R12" s="7"/>
     </row>
     <row r="13" spans="1:18" s="281" customFormat="1" ht="21.75">
-      <c r="A13" s="358"/>
-      <c r="B13" s="344"/>
+      <c r="A13" s="357"/>
+      <c r="B13" s="343"/>
       <c r="C13" s="39"/>
-      <c r="D13" s="342" t="s">
+      <c r="D13" s="341" t="s">
         <v>189</v>
       </c>
-      <c r="E13" s="343">
+      <c r="E13" s="342">
         <v>188150</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="229"/>
       <c r="H13" s="230"/>
-      <c r="I13" s="329" t="s">
+      <c r="I13" s="328" t="s">
         <v>181</v>
       </c>
       <c r="J13" s="31"/>
-      <c r="K13" s="331">
+      <c r="K13" s="330">
         <v>10000</v>
       </c>
-      <c r="L13" s="346">
+      <c r="L13" s="345">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
@@ -34275,32 +34266,32 @@
       <c r="R13" s="7"/>
     </row>
     <row r="14" spans="1:18" ht="21.75">
-      <c r="A14" s="358" t="s">
+      <c r="A14" s="357" t="s">
         <v>229</v>
       </c>
-      <c r="B14" s="344">
-        <v>700000</v>
+      <c r="B14" s="343">
+        <v>1000000</v>
       </c>
       <c r="C14" s="39"/>
-      <c r="D14" s="342" t="s">
+      <c r="D14" s="341" t="s">
         <v>172</v>
       </c>
-      <c r="E14" s="343">
-        <v>213170</v>
+      <c r="E14" s="342">
+        <v>133670</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="274" t="s">
         <v>12</v>
       </c>
       <c r="H14" s="231"/>
-      <c r="I14" s="329" t="s">
+      <c r="I14" s="328" t="s">
         <v>180</v>
       </c>
       <c r="J14" s="31"/>
       <c r="K14" s="31">
         <v>10000</v>
       </c>
-      <c r="L14" s="346">
+      <c r="L14" s="345">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
@@ -34317,10 +34308,10 @@
       <c r="A15" s="260"/>
       <c r="B15" s="237"/>
       <c r="C15" s="39"/>
-      <c r="D15" s="342" t="s">
+      <c r="D15" s="341" t="s">
         <v>142</v>
       </c>
-      <c r="E15" s="343">
+      <c r="E15" s="342">
         <v>139865</v>
       </c>
       <c r="F15" s="7"/>
@@ -34329,12 +34320,12 @@
       <c r="I15" s="31"/>
       <c r="J15" s="31"/>
       <c r="K15" s="31"/>
-      <c r="L15" s="346">
+      <c r="L15" s="345">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M15" s="31"/>
-      <c r="N15" s="348"/>
+      <c r="N15" s="347"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
@@ -34342,22 +34333,22 @@
     </row>
     <row r="16" spans="1:18" ht="21.75">
       <c r="A16" s="260"/>
-      <c r="B16" s="344"/>
+      <c r="B16" s="343"/>
       <c r="C16" s="39"/>
       <c r="D16" s="283"/>
       <c r="E16" s="284"/>
       <c r="F16" s="5"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="306"/>
+      <c r="H16" s="305"/>
       <c r="I16" s="31"/>
       <c r="J16" s="31"/>
       <c r="K16" s="31"/>
-      <c r="L16" s="346">
+      <c r="L16" s="345">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M16" s="31"/>
-      <c r="N16" s="348"/>
+      <c r="N16" s="347"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
@@ -34369,7 +34360,7 @@
       </c>
       <c r="B17" s="238">
         <f>B5+B12-B14</f>
-        <v>12508532</v>
+        <v>12208532</v>
       </c>
       <c r="C17" s="39"/>
       <c r="D17" s="39" t="s">
@@ -34377,24 +34368,24 @@
       </c>
       <c r="E17" s="262">
         <f>SUM(E5:E16)</f>
-        <v>12508532</v>
+        <v>12208532</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="108">
         <f>B17-E17</f>
         <v>0</v>
       </c>
-      <c r="H17" s="306"/>
-      <c r="I17" s="428" t="s">
+      <c r="H17" s="305"/>
+      <c r="I17" s="427" t="s">
         <v>184</v>
       </c>
-      <c r="J17" s="428"/>
-      <c r="K17" s="428"/>
-      <c r="L17" s="357">
+      <c r="J17" s="427"/>
+      <c r="K17" s="427"/>
+      <c r="L17" s="356">
         <f>SUM(L3:L16)</f>
         <v>311650</v>
       </c>
-      <c r="M17" s="357"/>
+      <c r="M17" s="356"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
@@ -34411,12 +34402,12 @@
       <c r="E18" s="263"/>
       <c r="F18" s="5"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="306"/>
-      <c r="I18" s="452" t="s">
+      <c r="H18" s="305"/>
+      <c r="I18" s="451" t="s">
         <v>120</v>
       </c>
-      <c r="J18" s="452"/>
-      <c r="K18" s="452"/>
+      <c r="J18" s="451"/>
+      <c r="K18" s="451"/>
       <c r="L18" s="31">
         <v>54000</v>
       </c>
@@ -34428,21 +34419,21 @@
       <c r="R18" s="7"/>
     </row>
     <row r="19" spans="1:18" ht="23.25" thickBot="1">
-      <c r="A19" s="443" t="s">
+      <c r="A19" s="442" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="444"/>
-      <c r="C19" s="444"/>
-      <c r="D19" s="444"/>
-      <c r="E19" s="445"/>
+      <c r="B19" s="443"/>
+      <c r="C19" s="443"/>
+      <c r="D19" s="443"/>
+      <c r="E19" s="444"/>
       <c r="F19" s="5"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="434" t="s">
+      <c r="I19" s="433" t="s">
         <v>192</v>
       </c>
-      <c r="J19" s="435"/>
-      <c r="K19" s="435"/>
+      <c r="J19" s="434"/>
+      <c r="K19" s="434"/>
       <c r="L19" s="31">
         <v>20000</v>
       </c>
@@ -34454,10 +34445,10 @@
       <c r="R19" s="7"/>
     </row>
     <row r="20" spans="1:18" ht="21.75">
-      <c r="A20" s="338" t="s">
+      <c r="A20" s="337" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="339">
+      <c r="B20" s="338">
         <v>256770</v>
       </c>
       <c r="C20" s="266"/>
@@ -34470,11 +34461,11 @@
       <c r="F20" s="5"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="435" t="s">
+      <c r="I20" s="434" t="s">
         <v>193</v>
       </c>
-      <c r="J20" s="435"/>
-      <c r="K20" s="435"/>
+      <c r="J20" s="434"/>
+      <c r="K20" s="434"/>
       <c r="L20" s="31">
         <v>19500</v>
       </c>
@@ -34501,11 +34492,11 @@
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="425" t="s">
+      <c r="I21" s="424" t="s">
         <v>236</v>
       </c>
-      <c r="J21" s="426"/>
-      <c r="K21" s="427"/>
+      <c r="J21" s="425"/>
+      <c r="K21" s="426"/>
       <c r="L21" s="31">
         <v>30000</v>
       </c>
@@ -34530,11 +34521,11 @@
       <c r="E22" s="264">
         <v>305500</v>
       </c>
-      <c r="I22" s="425" t="s">
+      <c r="I22" s="424" t="s">
         <v>12</v>
       </c>
-      <c r="J22" s="426"/>
-      <c r="K22" s="427"/>
+      <c r="J22" s="425"/>
+      <c r="K22" s="426"/>
       <c r="L22" s="31"/>
       <c r="M22" s="31"/>
       <c r="N22" s="7"/>
@@ -34557,16 +34548,16 @@
       <c r="E23" s="264">
         <v>81590</v>
       </c>
-      <c r="I23" s="428" t="s">
+      <c r="I23" s="427" t="s">
         <v>121</v>
       </c>
-      <c r="J23" s="428"/>
-      <c r="K23" s="428"/>
-      <c r="L23" s="357">
+      <c r="J23" s="427"/>
+      <c r="K23" s="427"/>
+      <c r="L23" s="356">
         <f>L17-L18-L19-L20-L21-L22</f>
         <v>188150</v>
       </c>
-      <c r="M23" s="357"/>
+      <c r="M23" s="356"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
@@ -34609,8 +34600,8 @@
       <c r="E25" s="264">
         <v>208430</v>
       </c>
-      <c r="J25" s="330"/>
-      <c r="K25" s="330"/>
+      <c r="J25" s="329"/>
+      <c r="K25" s="329"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
@@ -34631,13 +34622,13 @@
       <c r="E26" s="264">
         <v>25000</v>
       </c>
-      <c r="I26" s="429" t="s">
+      <c r="I26" s="428" t="s">
         <v>240</v>
       </c>
-      <c r="J26" s="430"/>
-      <c r="K26" s="430"/>
-      <c r="L26" s="430"/>
-      <c r="M26" s="431"/>
+      <c r="J26" s="429"/>
+      <c r="K26" s="429"/>
+      <c r="L26" s="429"/>
+      <c r="M26" s="430"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
@@ -34652,21 +34643,21 @@
         <v>190000</v>
       </c>
       <c r="C27" s="117"/>
-      <c r="D27" s="336" t="s">
+      <c r="D27" s="335" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="337">
+      <c r="E27" s="336">
         <v>111000</v>
       </c>
-      <c r="I27" s="432" t="s">
+      <c r="I27" s="431" t="s">
         <v>172</v>
       </c>
-      <c r="J27" s="432"/>
-      <c r="K27" s="433"/>
-      <c r="L27" s="392">
+      <c r="J27" s="431"/>
+      <c r="K27" s="432"/>
+      <c r="L27" s="391">
         <v>213170</v>
       </c>
-      <c r="M27" s="393"/>
+      <c r="M27" s="392"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
@@ -34687,22 +34678,22 @@
       <c r="E28" s="271">
         <v>200000</v>
       </c>
-      <c r="I28" s="434" t="s">
+      <c r="I28" s="433" t="s">
         <v>241</v>
       </c>
-      <c r="J28" s="435"/>
-      <c r="K28" s="435"/>
-      <c r="L28" s="391">
+      <c r="J28" s="434"/>
+      <c r="K28" s="434"/>
+      <c r="L28" s="390">
         <v>79500</v>
       </c>
-      <c r="M28" s="391"/>
+      <c r="M28" s="390"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
     </row>
-    <row r="29" spans="1:18" s="309" customFormat="1" ht="21.75">
+    <row r="29" spans="1:18" s="308" customFormat="1" ht="21.75">
       <c r="A29" s="267" t="s">
         <v>100</v>
       </c>
@@ -34716,36 +34707,36 @@
       <c r="E29" s="271">
         <v>40000</v>
       </c>
-      <c r="I29" s="435"/>
-      <c r="J29" s="435"/>
-      <c r="K29" s="435"/>
-      <c r="L29" s="391"/>
-      <c r="M29" s="391"/>
+      <c r="I29" s="434"/>
+      <c r="J29" s="434"/>
+      <c r="K29" s="434"/>
+      <c r="L29" s="390"/>
+      <c r="M29" s="390"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
     </row>
-    <row r="30" spans="1:18" s="310" customFormat="1" ht="22.5" thickBot="1">
-      <c r="A30" s="352" t="s">
+    <row r="30" spans="1:18" s="309" customFormat="1" ht="22.5" thickBot="1">
+      <c r="A30" s="351" t="s">
         <v>90</v>
       </c>
-      <c r="B30" s="353">
+      <c r="B30" s="352">
         <v>170000</v>
       </c>
-      <c r="C30" s="354"/>
-      <c r="D30" s="355" t="s">
+      <c r="C30" s="353"/>
+      <c r="D30" s="354" t="s">
         <v>177</v>
       </c>
-      <c r="E30" s="356">
+      <c r="E30" s="355">
         <v>30920</v>
       </c>
-      <c r="I30" s="425"/>
-      <c r="J30" s="426"/>
-      <c r="K30" s="427"/>
-      <c r="L30" s="391"/>
-      <c r="M30" s="391"/>
+      <c r="I30" s="424"/>
+      <c r="J30" s="425"/>
+      <c r="K30" s="426"/>
+      <c r="L30" s="390"/>
+      <c r="M30" s="390"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
@@ -34757,11 +34748,11 @@
       <c r="B31" s="33"/>
       <c r="C31" s="5"/>
       <c r="D31" s="32"/>
-      <c r="I31" s="425"/>
-      <c r="J31" s="426"/>
-      <c r="K31" s="427"/>
-      <c r="L31" s="391"/>
-      <c r="M31" s="391"/>
+      <c r="I31" s="424"/>
+      <c r="J31" s="425"/>
+      <c r="K31" s="426"/>
+      <c r="L31" s="390"/>
+      <c r="M31" s="390"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
@@ -34769,16 +34760,16 @@
       <c r="R31" s="7"/>
     </row>
     <row r="32" spans="1:18" ht="15.75">
-      <c r="I32" s="428" t="s">
+      <c r="I32" s="427" t="s">
         <v>121</v>
       </c>
-      <c r="J32" s="428"/>
-      <c r="K32" s="428"/>
-      <c r="L32" s="390">
+      <c r="J32" s="427"/>
+      <c r="K32" s="427"/>
+      <c r="L32" s="389">
         <f>L27-L28</f>
         <v>133670</v>
       </c>
-      <c r="M32" s="390"/>
+      <c r="M32" s="389"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
@@ -37545,7 +37536,7 @@
     <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" style="278" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="340" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="339" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.28515625" customWidth="1"/>
@@ -37553,10 +37544,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" thickBot="1">
-      <c r="A1" s="453" t="s">
+      <c r="A1" s="452" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="454"/>
+      <c r="B1" s="453"/>
       <c r="C1" s="273">
         <f>C75+H6</f>
         <v>139865</v>
@@ -37587,10 +37578,10 @@
       <c r="E3" s="252" t="s">
         <v>107</v>
       </c>
-      <c r="G3" s="362" t="s">
+      <c r="G3" s="361" t="s">
         <v>233</v>
       </c>
-      <c r="H3" s="362">
+      <c r="H3" s="361">
         <v>24755</v>
       </c>
     </row>
@@ -37601,7 +37592,7 @@
       <c r="B4" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="C4" s="360">
+      <c r="C4" s="359">
         <v>0</v>
       </c>
       <c r="D4" s="24">
@@ -37611,10 +37602,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="61"/>
-      <c r="G4" s="362" t="s">
+      <c r="G4" s="361" t="s">
         <v>201</v>
       </c>
-      <c r="H4" s="362">
+      <c r="H4" s="361">
         <v>23400</v>
       </c>
     </row>
@@ -37625,7 +37616,7 @@
       <c r="B5" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="C5" s="360">
+      <c r="C5" s="359">
         <v>3500</v>
       </c>
       <c r="D5" s="24">
@@ -37635,10 +37626,10 @@
         <v>0</v>
       </c>
       <c r="F5" s="61"/>
-      <c r="G5" s="332" t="s">
+      <c r="G5" s="331" t="s">
         <v>223</v>
       </c>
-      <c r="H5" s="383">
+      <c r="H5" s="382">
         <v>7000</v>
       </c>
     </row>
@@ -37649,7 +37640,7 @@
       <c r="B6" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="360">
+      <c r="C6" s="359">
         <v>3500</v>
       </c>
       <c r="D6" s="24">
@@ -37659,10 +37650,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="61"/>
-      <c r="G6" s="333" t="s">
+      <c r="G6" s="332" t="s">
         <v>80</v>
       </c>
-      <c r="H6" s="333">
+      <c r="H6" s="332">
         <f>H3+H4-H5</f>
         <v>41155</v>
       </c>
@@ -37674,7 +37665,7 @@
       <c r="B7" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="C7" s="360">
+      <c r="C7" s="359">
         <v>4500</v>
       </c>
       <c r="D7" s="24">
@@ -37692,7 +37683,7 @@
       <c r="B8" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="C8" s="369">
+      <c r="C8" s="368">
         <v>4000</v>
       </c>
       <c r="D8" s="24">
@@ -37702,32 +37693,32 @@
         <v>0</v>
       </c>
       <c r="F8" s="61"/>
-      <c r="G8" s="332" t="s">
+      <c r="G8" s="331" t="s">
         <v>194</v>
       </c>
-      <c r="H8" s="332"/>
+      <c r="H8" s="331"/>
     </row>
     <row r="9" spans="1:10" ht="18">
-      <c r="A9" s="376" t="s">
+      <c r="A9" s="375" t="s">
         <v>206</v>
       </c>
-      <c r="B9" s="376" t="s">
+      <c r="B9" s="375" t="s">
         <v>207</v>
       </c>
-      <c r="C9" s="331">
+      <c r="C9" s="330">
         <v>6000</v>
       </c>
-      <c r="D9" s="376">
+      <c r="D9" s="375">
         <v>0</v>
       </c>
-      <c r="E9" s="377">
+      <c r="E9" s="376">
         <v>0</v>
       </c>
       <c r="F9" s="61"/>
-      <c r="G9" s="334" t="s">
+      <c r="G9" s="333" t="s">
         <v>197</v>
       </c>
-      <c r="H9" s="334"/>
+      <c r="H9" s="333"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="24" t="s">
@@ -37736,7 +37727,7 @@
       <c r="B10" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="C10" s="372">
+      <c r="C10" s="371">
         <v>4200</v>
       </c>
       <c r="D10" s="24">
@@ -37754,7 +37745,7 @@
       <c r="B11" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="C11" s="373">
+      <c r="C11" s="372">
         <v>5500</v>
       </c>
       <c r="D11" s="24">
@@ -37764,10 +37755,10 @@
         <v>0</v>
       </c>
       <c r="F11" s="61"/>
-      <c r="G11" s="332" t="s">
+      <c r="G11" s="331" t="s">
         <v>147</v>
       </c>
-      <c r="H11" s="332">
+      <c r="H11" s="331">
         <v>83350</v>
       </c>
     </row>
@@ -37778,7 +37769,7 @@
       <c r="B12" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="C12" s="374">
+      <c r="C12" s="373">
         <v>4000</v>
       </c>
       <c r="D12" s="24">
@@ -37788,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="F12" s="61"/>
-      <c r="G12" s="334" t="s">
+      <c r="G12" s="333" t="s">
         <v>150</v>
       </c>
-      <c r="H12" s="334">
+      <c r="H12" s="333">
         <v>133000</v>
       </c>
       <c r="I12" t="s">
@@ -37803,19 +37794,19 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="376" t="s">
+      <c r="A13" s="375" t="s">
         <v>211</v>
       </c>
-      <c r="B13" s="376" t="s">
+      <c r="B13" s="375" t="s">
         <v>207</v>
       </c>
-      <c r="C13" s="331">
+      <c r="C13" s="330">
         <v>6000</v>
       </c>
-      <c r="D13" s="376">
+      <c r="D13" s="375">
         <v>0</v>
       </c>
-      <c r="E13" s="377">
+      <c r="E13" s="376">
         <v>0</v>
       </c>
       <c r="F13" s="61"/>
@@ -37824,57 +37815,57 @@
       <c r="A14" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="B14" s="360" t="s">
+      <c r="B14" s="359" t="s">
         <v>198</v>
       </c>
-      <c r="C14" s="360">
+      <c r="C14" s="359">
         <v>3000</v>
       </c>
-      <c r="D14" s="360">
+      <c r="D14" s="359">
         <v>0</v>
       </c>
       <c r="E14" s="241">
         <v>0</v>
       </c>
       <c r="F14" s="61"/>
-      <c r="G14" s="332" t="s">
+      <c r="G14" s="331" t="s">
         <v>195</v>
       </c>
-      <c r="H14" s="332"/>
+      <c r="H14" s="331"/>
     </row>
     <row r="15" spans="1:10" ht="18">
-      <c r="A15" s="376" t="s">
+      <c r="A15" s="375" t="s">
         <v>213</v>
       </c>
-      <c r="B15" s="376" t="s">
+      <c r="B15" s="375" t="s">
         <v>207</v>
       </c>
-      <c r="C15" s="331">
+      <c r="C15" s="330">
         <v>6000</v>
       </c>
-      <c r="D15" s="376">
+      <c r="D15" s="375">
         <v>0</v>
       </c>
-      <c r="E15" s="377">
+      <c r="E15" s="376">
         <v>0</v>
       </c>
       <c r="F15" s="61"/>
-      <c r="G15" s="334" t="s">
+      <c r="G15" s="333" t="s">
         <v>196</v>
       </c>
-      <c r="H15" s="334"/>
+      <c r="H15" s="333"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="B16" s="378" t="s">
+      <c r="B16" s="377" t="s">
         <v>198</v>
       </c>
-      <c r="C16" s="378">
+      <c r="C16" s="377">
         <v>2600</v>
       </c>
-      <c r="D16" s="378">
+      <c r="D16" s="377">
         <v>0</v>
       </c>
       <c r="E16" s="241">
@@ -37886,13 +37877,13 @@
       <c r="A17" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="B17" s="379" t="s">
+      <c r="B17" s="378" t="s">
         <v>198</v>
       </c>
-      <c r="C17" s="379">
+      <c r="C17" s="378">
         <v>3500</v>
       </c>
-      <c r="D17" s="379">
+      <c r="D17" s="378">
         <v>0</v>
       </c>
       <c r="E17" s="241">
@@ -37907,7 +37898,7 @@
       <c r="B18" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="C18" s="360">
+      <c r="C18" s="359">
         <v>2000</v>
       </c>
       <c r="D18" s="24">
@@ -37917,36 +37908,36 @@
         <v>0</v>
       </c>
       <c r="F18" s="222"/>
-      <c r="G18" s="457" t="s">
+      <c r="G18" s="456" t="s">
         <v>167</v>
       </c>
-      <c r="H18" s="457"/>
-      <c r="I18" s="457"/>
+      <c r="H18" s="456"/>
+      <c r="I18" s="456"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="380" t="s">
+      <c r="A19" s="379" t="s">
         <v>221</v>
       </c>
-      <c r="B19" s="380" t="s">
+      <c r="B19" s="379" t="s">
         <v>222</v>
       </c>
-      <c r="C19" s="381">
+      <c r="C19" s="380">
         <v>19810</v>
       </c>
-      <c r="D19" s="380">
+      <c r="D19" s="379">
         <v>0</v>
       </c>
-      <c r="E19" s="382">
+      <c r="E19" s="381">
         <v>0</v>
       </c>
       <c r="F19" s="222"/>
-      <c r="G19" s="364" t="s">
+      <c r="G19" s="363" t="s">
         <v>169</v>
       </c>
-      <c r="H19" s="365">
+      <c r="H19" s="364">
         <v>5000</v>
       </c>
-      <c r="I19" s="364" t="s">
+      <c r="I19" s="363" t="s">
         <v>166</v>
       </c>
     </row>
@@ -37954,10 +37945,10 @@
       <c r="A20" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="B20" s="360" t="s">
+      <c r="B20" s="359" t="s">
         <v>198</v>
       </c>
-      <c r="C20" s="360">
+      <c r="C20" s="359">
         <v>4500</v>
       </c>
       <c r="D20" s="24">
@@ -37967,13 +37958,13 @@
         <v>0</v>
       </c>
       <c r="F20" s="222"/>
-      <c r="G20" s="364" t="s">
+      <c r="G20" s="363" t="s">
         <v>168</v>
       </c>
-      <c r="H20" s="365">
+      <c r="H20" s="364">
         <v>5000</v>
       </c>
-      <c r="I20" s="364" t="s">
+      <c r="I20" s="363" t="s">
         <v>166</v>
       </c>
     </row>
@@ -37981,10 +37972,10 @@
       <c r="A21" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="B21" s="384" t="s">
+      <c r="B21" s="383" t="s">
         <v>198</v>
       </c>
-      <c r="C21" s="384">
+      <c r="C21" s="383">
         <v>4000</v>
       </c>
       <c r="D21" s="24">
@@ -37994,13 +37985,13 @@
         <v>0</v>
       </c>
       <c r="F21" s="222"/>
-      <c r="G21" s="365" t="s">
+      <c r="G21" s="364" t="s">
         <v>169</v>
       </c>
-      <c r="H21" s="365">
+      <c r="H21" s="364">
         <v>8000</v>
       </c>
-      <c r="I21" s="365" t="s">
+      <c r="I21" s="364" t="s">
         <v>170</v>
       </c>
     </row>
@@ -38008,10 +37999,10 @@
       <c r="A22" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="B22" s="385" t="s">
+      <c r="B22" s="384" t="s">
         <v>198</v>
       </c>
-      <c r="C22" s="385">
+      <c r="C22" s="384">
         <v>3000</v>
       </c>
       <c r="D22" s="24">
@@ -38021,13 +38012,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="222"/>
-      <c r="G22" s="365" t="s">
+      <c r="G22" s="364" t="s">
         <v>168</v>
       </c>
-      <c r="H22" s="365">
+      <c r="H22" s="364">
         <v>6000</v>
       </c>
-      <c r="I22" s="365" t="s">
+      <c r="I22" s="364" t="s">
         <v>173</v>
       </c>
     </row>
@@ -38038,23 +38029,23 @@
       <c r="B23" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="C23" s="360">
+      <c r="C23" s="359">
         <v>4600</v>
       </c>
-      <c r="D23" s="360">
+      <c r="D23" s="359">
         <v>0</v>
       </c>
       <c r="E23" s="241">
         <v>0</v>
       </c>
       <c r="F23" s="222"/>
-      <c r="G23" s="365" t="s">
+      <c r="G23" s="364" t="s">
         <v>168</v>
       </c>
-      <c r="H23" s="365">
+      <c r="H23" s="364">
         <v>7000</v>
       </c>
-      <c r="I23" s="365" t="s">
+      <c r="I23" s="364" t="s">
         <v>174</v>
       </c>
     </row>
@@ -38065,23 +38056,23 @@
       <c r="B24" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="C24" s="387">
+      <c r="C24" s="386">
         <v>3000</v>
       </c>
-      <c r="D24" s="387">
+      <c r="D24" s="386">
         <v>0</v>
       </c>
       <c r="E24" s="241">
         <v>0</v>
       </c>
       <c r="F24" s="222"/>
-      <c r="G24" s="364" t="s">
+      <c r="G24" s="363" t="s">
         <v>155</v>
       </c>
-      <c r="H24" s="365">
+      <c r="H24" s="364">
         <v>2000</v>
       </c>
-      <c r="I24" s="364" t="s">
+      <c r="I24" s="363" t="s">
         <v>178</v>
       </c>
     </row>
@@ -38092,568 +38083,568 @@
       <c r="B25" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="C25" s="360">
+      <c r="C25" s="359">
         <v>1500</v>
       </c>
-      <c r="D25" s="360">
+      <c r="D25" s="359">
         <v>0</v>
       </c>
       <c r="E25" s="240">
         <v>0</v>
       </c>
       <c r="F25" s="222"/>
-      <c r="G25" s="364" t="s">
+      <c r="G25" s="363" t="s">
         <v>169</v>
       </c>
-      <c r="H25" s="365">
+      <c r="H25" s="364">
         <v>7500</v>
       </c>
-      <c r="I25" s="364" t="s">
+      <c r="I25" s="363" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="24"/>
       <c r="B26" s="24"/>
-      <c r="C26" s="360"/>
+      <c r="C26" s="359"/>
       <c r="D26" s="24"/>
       <c r="E26" s="241"/>
       <c r="F26" s="222"/>
-      <c r="G26" s="364" t="s">
+      <c r="G26" s="363" t="s">
         <v>168</v>
       </c>
-      <c r="H26" s="365">
+      <c r="H26" s="364">
         <v>20500</v>
       </c>
-      <c r="I26" s="364" t="s">
+      <c r="I26" s="363" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
-      <c r="C27" s="360"/>
+      <c r="C27" s="359"/>
       <c r="D27" s="24"/>
       <c r="E27" s="241"/>
       <c r="F27" s="222"/>
-      <c r="G27" s="365" t="s">
+      <c r="G27" s="364" t="s">
         <v>168</v>
       </c>
-      <c r="H27" s="365">
+      <c r="H27" s="364">
         <v>9000</v>
       </c>
-      <c r="I27" s="365" t="s">
+      <c r="I27" s="364" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="24"/>
       <c r="B28" s="24"/>
-      <c r="C28" s="360"/>
+      <c r="C28" s="359"/>
       <c r="D28" s="24"/>
       <c r="E28" s="241"/>
       <c r="F28" s="222"/>
-      <c r="G28" s="365" t="s">
+      <c r="G28" s="364" t="s">
         <v>199</v>
       </c>
-      <c r="H28" s="365">
+      <c r="H28" s="364">
         <v>13500</v>
       </c>
-      <c r="I28" s="365" t="s">
+      <c r="I28" s="364" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="24"/>
       <c r="B29" s="24"/>
-      <c r="C29" s="360"/>
+      <c r="C29" s="359"/>
       <c r="D29" s="24"/>
       <c r="E29" s="241"/>
       <c r="F29" s="222"/>
-      <c r="G29" s="365" t="s">
+      <c r="G29" s="364" t="s">
         <v>168</v>
       </c>
-      <c r="H29" s="365">
+      <c r="H29" s="364">
         <v>1000</v>
       </c>
-      <c r="I29" s="365" t="s">
+      <c r="I29" s="364" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="24"/>
       <c r="B30" s="24"/>
-      <c r="C30" s="360"/>
+      <c r="C30" s="359"/>
       <c r="D30" s="24"/>
       <c r="E30" s="241"/>
       <c r="F30" s="222"/>
-      <c r="G30" s="365" t="s">
+      <c r="G30" s="364" t="s">
         <v>199</v>
       </c>
-      <c r="H30" s="365">
+      <c r="H30" s="364">
         <v>34500</v>
       </c>
-      <c r="I30" s="365" t="s">
+      <c r="I30" s="364" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="24"/>
       <c r="B31" s="24"/>
-      <c r="C31" s="360"/>
+      <c r="C31" s="359"/>
       <c r="D31" s="24"/>
       <c r="E31" s="241"/>
       <c r="F31" s="222"/>
-      <c r="G31" s="365" t="s">
+      <c r="G31" s="364" t="s">
         <v>169</v>
       </c>
-      <c r="H31" s="365">
+      <c r="H31" s="364">
         <v>500</v>
       </c>
-      <c r="I31" s="365" t="s">
+      <c r="I31" s="364" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="24"/>
       <c r="B32" s="24"/>
-      <c r="C32" s="360"/>
+      <c r="C32" s="359"/>
       <c r="D32" s="24"/>
       <c r="E32" s="241"/>
       <c r="F32" s="222"/>
-      <c r="G32" s="365" t="s">
+      <c r="G32" s="364" t="s">
         <v>168</v>
       </c>
-      <c r="H32" s="365">
+      <c r="H32" s="364">
         <v>6500</v>
       </c>
-      <c r="I32" s="365" t="s">
+      <c r="I32" s="364" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="24"/>
       <c r="B33" s="24"/>
-      <c r="C33" s="360"/>
+      <c r="C33" s="359"/>
       <c r="D33" s="24"/>
       <c r="E33" s="241"/>
       <c r="F33" s="222"/>
-      <c r="G33" s="365" t="s">
+      <c r="G33" s="364" t="s">
         <v>204</v>
       </c>
-      <c r="H33" s="365">
+      <c r="H33" s="364">
         <v>2500</v>
       </c>
-      <c r="I33" s="365" t="s">
+      <c r="I33" s="364" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="24"/>
       <c r="B34" s="24"/>
-      <c r="C34" s="360"/>
+      <c r="C34" s="359"/>
       <c r="D34" s="24"/>
       <c r="E34" s="241"/>
       <c r="F34" s="222"/>
-      <c r="G34" s="364" t="s">
+      <c r="G34" s="363" t="s">
         <v>169</v>
       </c>
-      <c r="H34" s="365">
+      <c r="H34" s="364">
         <v>4000</v>
       </c>
-      <c r="I34" s="365" t="s">
+      <c r="I34" s="364" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="24"/>
       <c r="B35" s="24"/>
-      <c r="C35" s="360"/>
-      <c r="D35" s="360"/>
+      <c r="C35" s="359"/>
+      <c r="D35" s="359"/>
       <c r="E35" s="240"/>
       <c r="F35" s="61"/>
-      <c r="G35" s="368" t="s">
+      <c r="G35" s="367" t="s">
         <v>204</v>
       </c>
-      <c r="H35" s="368">
+      <c r="H35" s="367">
         <v>23000</v>
       </c>
-      <c r="I35" s="368" t="s">
+      <c r="I35" s="367" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="360"/>
-      <c r="B36" s="360"/>
-      <c r="C36" s="360"/>
-      <c r="D36" s="360"/>
+      <c r="A36" s="359"/>
+      <c r="B36" s="359"/>
+      <c r="C36" s="359"/>
+      <c r="D36" s="359"/>
       <c r="E36" s="241"/>
       <c r="F36" s="222"/>
-      <c r="G36" s="371" t="s">
+      <c r="G36" s="370" t="s">
         <v>168</v>
       </c>
-      <c r="H36" s="371">
+      <c r="H36" s="370">
         <v>6500</v>
       </c>
-      <c r="I36" s="371" t="s">
+      <c r="I36" s="370" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="360"/>
-      <c r="B37" s="360"/>
-      <c r="C37" s="360"/>
-      <c r="D37" s="360"/>
+      <c r="A37" s="359"/>
+      <c r="B37" s="359"/>
+      <c r="C37" s="359"/>
+      <c r="D37" s="359"/>
       <c r="E37" s="241"/>
       <c r="F37" s="61"/>
-      <c r="G37" s="365" t="s">
+      <c r="G37" s="364" t="s">
         <v>168</v>
       </c>
-      <c r="H37" s="365">
+      <c r="H37" s="364">
         <v>2000</v>
       </c>
-      <c r="I37" s="365" t="s">
+      <c r="I37" s="364" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="360"/>
-      <c r="B38" s="360"/>
-      <c r="C38" s="360"/>
-      <c r="D38" s="360"/>
+      <c r="A38" s="359"/>
+      <c r="B38" s="359"/>
+      <c r="C38" s="359"/>
+      <c r="D38" s="359"/>
       <c r="E38" s="241"/>
       <c r="F38" s="222"/>
-      <c r="G38" s="375" t="s">
+      <c r="G38" s="374" t="s">
         <v>168</v>
       </c>
-      <c r="H38" s="375">
+      <c r="H38" s="374">
         <v>9500</v>
       </c>
-      <c r="I38" s="375" t="s">
+      <c r="I38" s="374" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="360"/>
-      <c r="B39" s="360"/>
-      <c r="C39" s="360"/>
-      <c r="D39" s="360"/>
+      <c r="A39" s="359"/>
+      <c r="B39" s="359"/>
+      <c r="C39" s="359"/>
+      <c r="D39" s="359"/>
       <c r="E39" s="241"/>
       <c r="F39" s="222"/>
-      <c r="G39" s="365"/>
-      <c r="H39" s="365"/>
-      <c r="I39" s="365"/>
+      <c r="G39" s="364"/>
+      <c r="H39" s="364"/>
+      <c r="I39" s="364"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="360"/>
-      <c r="B40" s="360"/>
-      <c r="C40" s="360"/>
-      <c r="D40" s="360"/>
+      <c r="A40" s="359"/>
+      <c r="B40" s="359"/>
+      <c r="C40" s="359"/>
+      <c r="D40" s="359"/>
       <c r="E40" s="241"/>
       <c r="F40" s="222"/>
-      <c r="G40" s="365"/>
-      <c r="H40" s="365"/>
-      <c r="I40" s="365"/>
+      <c r="G40" s="364"/>
+      <c r="H40" s="364"/>
+      <c r="I40" s="364"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="360"/>
-      <c r="B41" s="360"/>
-      <c r="C41" s="360"/>
-      <c r="D41" s="360"/>
+      <c r="A41" s="359"/>
+      <c r="B41" s="359"/>
+      <c r="C41" s="359"/>
+      <c r="D41" s="359"/>
       <c r="E41" s="241"/>
       <c r="F41" s="222"/>
-      <c r="G41" s="365"/>
-      <c r="H41" s="365"/>
-      <c r="I41" s="365"/>
+      <c r="G41" s="364"/>
+      <c r="H41" s="364"/>
+      <c r="I41" s="364"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="360"/>
-      <c r="B42" s="360"/>
-      <c r="C42" s="360"/>
+      <c r="A42" s="359"/>
+      <c r="B42" s="359"/>
+      <c r="C42" s="359"/>
       <c r="D42" s="24"/>
       <c r="E42" s="241"/>
       <c r="F42" s="222"/>
-      <c r="G42" s="365"/>
-      <c r="H42" s="365"/>
-      <c r="I42" s="365"/>
+      <c r="G42" s="364"/>
+      <c r="H42" s="364"/>
+      <c r="I42" s="364"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="360"/>
-      <c r="B43" s="360"/>
-      <c r="C43" s="360"/>
-      <c r="D43" s="360"/>
+      <c r="A43" s="359"/>
+      <c r="B43" s="359"/>
+      <c r="C43" s="359"/>
+      <c r="D43" s="359"/>
       <c r="E43" s="241"/>
-      <c r="F43" s="326"/>
-      <c r="G43" s="365"/>
-      <c r="H43" s="365"/>
-      <c r="I43" s="365"/>
+      <c r="F43" s="325"/>
+      <c r="G43" s="364"/>
+      <c r="H43" s="364"/>
+      <c r="I43" s="364"/>
     </row>
     <row r="44" spans="1:9" ht="15">
-      <c r="A44" s="360"/>
-      <c r="B44" s="360"/>
-      <c r="C44" s="360"/>
-      <c r="D44" s="360"/>
+      <c r="A44" s="359"/>
+      <c r="B44" s="359"/>
+      <c r="C44" s="359"/>
+      <c r="D44" s="359"/>
       <c r="E44" s="241"/>
-      <c r="F44" s="326"/>
-      <c r="G44" s="359" t="s">
+      <c r="F44" s="325"/>
+      <c r="G44" s="358" t="s">
         <v>4</v>
       </c>
-      <c r="H44" s="359">
+      <c r="H44" s="358">
         <f>SUM(H19:H43)</f>
         <v>173500</v>
       </c>
-      <c r="I44" s="359"/>
+      <c r="I44" s="358"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="360"/>
-      <c r="B45" s="360"/>
-      <c r="C45" s="360"/>
-      <c r="D45" s="360"/>
+      <c r="A45" s="359"/>
+      <c r="B45" s="359"/>
+      <c r="C45" s="359"/>
+      <c r="D45" s="359"/>
       <c r="E45" s="241"/>
-      <c r="F45" s="326"/>
+      <c r="F45" s="325"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="360"/>
-      <c r="B46" s="360"/>
-      <c r="C46" s="360"/>
-      <c r="D46" s="360"/>
+      <c r="A46" s="359"/>
+      <c r="B46" s="359"/>
+      <c r="C46" s="359"/>
+      <c r="D46" s="359"/>
       <c r="E46" s="241"/>
-      <c r="F46" s="326"/>
+      <c r="F46" s="325"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="360"/>
-      <c r="B47" s="360"/>
-      <c r="C47" s="360"/>
-      <c r="D47" s="360"/>
+      <c r="A47" s="359"/>
+      <c r="B47" s="359"/>
+      <c r="C47" s="359"/>
+      <c r="D47" s="359"/>
       <c r="E47" s="241"/>
-      <c r="F47" s="326"/>
+      <c r="F47" s="325"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="360"/>
-      <c r="B48" s="360"/>
-      <c r="C48" s="360"/>
-      <c r="D48" s="360"/>
+      <c r="A48" s="359"/>
+      <c r="B48" s="359"/>
+      <c r="C48" s="359"/>
+      <c r="D48" s="359"/>
       <c r="E48" s="241"/>
-      <c r="F48" s="326"/>
+      <c r="F48" s="325"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="360"/>
+      <c r="A49" s="359"/>
       <c r="B49" s="24"/>
-      <c r="C49" s="360"/>
-      <c r="D49" s="360"/>
+      <c r="C49" s="359"/>
+      <c r="D49" s="359"/>
       <c r="E49" s="241"/>
-      <c r="F49" s="326"/>
+      <c r="F49" s="325"/>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="24"/>
       <c r="B50" s="24"/>
-      <c r="C50" s="360"/>
-      <c r="D50" s="360"/>
+      <c r="C50" s="359"/>
+      <c r="D50" s="359"/>
       <c r="E50" s="240"/>
-      <c r="F50" s="326"/>
+      <c r="F50" s="325"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="360"/>
-      <c r="B51" s="360"/>
-      <c r="C51" s="360"/>
-      <c r="D51" s="360"/>
+      <c r="A51" s="359"/>
+      <c r="B51" s="359"/>
+      <c r="C51" s="359"/>
+      <c r="D51" s="359"/>
       <c r="E51" s="241"/>
-      <c r="F51" s="326"/>
+      <c r="F51" s="325"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="24"/>
-      <c r="B52" s="360"/>
-      <c r="C52" s="360"/>
-      <c r="D52" s="360"/>
+      <c r="B52" s="359"/>
+      <c r="C52" s="359"/>
+      <c r="D52" s="359"/>
       <c r="E52" s="240"/>
-      <c r="F52" s="326"/>
+      <c r="F52" s="325"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="360"/>
-      <c r="B53" s="360"/>
-      <c r="C53" s="360"/>
-      <c r="D53" s="360"/>
+      <c r="A53" s="359"/>
+      <c r="B53" s="359"/>
+      <c r="C53" s="359"/>
+      <c r="D53" s="359"/>
       <c r="E53" s="241"/>
-      <c r="F53" s="326"/>
+      <c r="F53" s="325"/>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="24"/>
       <c r="B54" s="24"/>
-      <c r="C54" s="360"/>
-      <c r="D54" s="360"/>
+      <c r="C54" s="359"/>
+      <c r="D54" s="359"/>
       <c r="E54" s="240"/>
-      <c r="F54" s="326"/>
+      <c r="F54" s="325"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="360"/>
-      <c r="B55" s="360"/>
-      <c r="C55" s="360"/>
-      <c r="D55" s="360"/>
+      <c r="A55" s="359"/>
+      <c r="B55" s="359"/>
+      <c r="C55" s="359"/>
+      <c r="D55" s="359"/>
       <c r="E55" s="241"/>
-      <c r="F55" s="326"/>
+      <c r="F55" s="325"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="360"/>
-      <c r="B56" s="360"/>
-      <c r="C56" s="360"/>
-      <c r="D56" s="360"/>
+      <c r="A56" s="359"/>
+      <c r="B56" s="359"/>
+      <c r="C56" s="359"/>
+      <c r="D56" s="359"/>
       <c r="E56" s="241"/>
-      <c r="F56" s="326"/>
+      <c r="F56" s="325"/>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="24"/>
       <c r="B57" s="24"/>
-      <c r="C57" s="360"/>
+      <c r="C57" s="359"/>
       <c r="D57" s="24"/>
       <c r="E57" s="241"/>
-      <c r="F57" s="326"/>
+      <c r="F57" s="325"/>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="24"/>
       <c r="B58" s="24"/>
-      <c r="C58" s="360"/>
+      <c r="C58" s="359"/>
       <c r="D58" s="24"/>
       <c r="E58" s="240"/>
-      <c r="F58" s="326"/>
+      <c r="F58" s="325"/>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="24"/>
       <c r="B59" s="24"/>
-      <c r="C59" s="360"/>
+      <c r="C59" s="359"/>
       <c r="D59" s="24"/>
       <c r="E59" s="240"/>
-      <c r="F59" s="326"/>
+      <c r="F59" s="325"/>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="24"/>
       <c r="B60" s="24"/>
-      <c r="C60" s="360"/>
+      <c r="C60" s="359"/>
       <c r="D60" s="24"/>
       <c r="E60" s="240"/>
-      <c r="F60" s="326"/>
+      <c r="F60" s="325"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="24"/>
       <c r="B61" s="24"/>
-      <c r="C61" s="360"/>
+      <c r="C61" s="359"/>
       <c r="D61" s="24"/>
       <c r="E61" s="241"/>
-      <c r="F61" s="326"/>
+      <c r="F61" s="325"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="360"/>
-      <c r="B62" s="360"/>
-      <c r="C62" s="360"/>
-      <c r="D62" s="360"/>
+      <c r="A62" s="359"/>
+      <c r="B62" s="359"/>
+      <c r="C62" s="359"/>
+      <c r="D62" s="359"/>
       <c r="E62" s="241"/>
-      <c r="F62" s="326"/>
+      <c r="F62" s="325"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="24"/>
       <c r="B63" s="24"/>
-      <c r="C63" s="360"/>
+      <c r="C63" s="359"/>
       <c r="D63" s="24"/>
       <c r="E63" s="241"/>
-      <c r="F63" s="326"/>
+      <c r="F63" s="325"/>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="24"/>
       <c r="B64" s="24"/>
-      <c r="C64" s="360"/>
-      <c r="D64" s="360"/>
+      <c r="C64" s="359"/>
+      <c r="D64" s="359"/>
       <c r="E64" s="240"/>
-      <c r="F64" s="326"/>
+      <c r="F64" s="325"/>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="24"/>
-      <c r="B65" s="360"/>
-      <c r="C65" s="360"/>
-      <c r="D65" s="360"/>
+      <c r="B65" s="359"/>
+      <c r="C65" s="359"/>
+      <c r="D65" s="359"/>
       <c r="E65" s="240"/>
-      <c r="F65" s="326"/>
+      <c r="F65" s="325"/>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="24"/>
-      <c r="B66" s="360"/>
-      <c r="C66" s="360"/>
-      <c r="D66" s="360"/>
+      <c r="B66" s="359"/>
+      <c r="C66" s="359"/>
+      <c r="D66" s="359"/>
       <c r="E66" s="240"/>
-      <c r="F66" s="326"/>
+      <c r="F66" s="325"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="360"/>
-      <c r="B67" s="360"/>
-      <c r="C67" s="360"/>
-      <c r="D67" s="360"/>
+      <c r="A67" s="359"/>
+      <c r="B67" s="359"/>
+      <c r="C67" s="359"/>
+      <c r="D67" s="359"/>
       <c r="E67" s="241"/>
-      <c r="F67" s="326"/>
+      <c r="F67" s="325"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="360"/>
-      <c r="B68" s="360"/>
-      <c r="C68" s="360"/>
-      <c r="D68" s="360"/>
+      <c r="A68" s="359"/>
+      <c r="B68" s="359"/>
+      <c r="C68" s="359"/>
+      <c r="D68" s="359"/>
       <c r="E68" s="241"/>
-      <c r="F68" s="326"/>
+      <c r="F68" s="325"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="360"/>
-      <c r="B69" s="360"/>
-      <c r="C69" s="360"/>
-      <c r="D69" s="360"/>
+      <c r="A69" s="359"/>
+      <c r="B69" s="359"/>
+      <c r="C69" s="359"/>
+      <c r="D69" s="359"/>
       <c r="E69" s="241"/>
-      <c r="F69" s="326"/>
+      <c r="F69" s="325"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="360"/>
-      <c r="B70" s="360"/>
-      <c r="C70" s="360"/>
-      <c r="D70" s="360"/>
+      <c r="A70" s="359"/>
+      <c r="B70" s="359"/>
+      <c r="C70" s="359"/>
+      <c r="D70" s="359"/>
       <c r="E70" s="241"/>
-      <c r="F70" s="326"/>
+      <c r="F70" s="325"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="360"/>
-      <c r="B71" s="360"/>
-      <c r="C71" s="360"/>
-      <c r="D71" s="360"/>
+      <c r="A71" s="359"/>
+      <c r="B71" s="359"/>
+      <c r="C71" s="359"/>
+      <c r="D71" s="359"/>
       <c r="E71" s="241"/>
-      <c r="F71" s="326"/>
+      <c r="F71" s="325"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="360"/>
-      <c r="B72" s="360"/>
-      <c r="C72" s="360"/>
-      <c r="D72" s="360"/>
+      <c r="A72" s="359"/>
+      <c r="B72" s="359"/>
+      <c r="C72" s="359"/>
+      <c r="D72" s="359"/>
       <c r="E72" s="241"/>
-      <c r="F72" s="326"/>
+      <c r="F72" s="325"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="360"/>
-      <c r="B73" s="360"/>
-      <c r="C73" s="360"/>
-      <c r="D73" s="360"/>
+      <c r="A73" s="359"/>
+      <c r="B73" s="359"/>
+      <c r="C73" s="359"/>
+      <c r="D73" s="359"/>
       <c r="E73" s="241"/>
-      <c r="F73" s="326"/>
+      <c r="F73" s="325"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="360"/>
-      <c r="B74" s="360"/>
-      <c r="C74" s="360"/>
-      <c r="D74" s="360"/>
+      <c r="A74" s="359"/>
+      <c r="B74" s="359"/>
+      <c r="C74" s="359"/>
+      <c r="D74" s="359"/>
       <c r="E74" s="241"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="455" t="s">
+      <c r="A75" s="454" t="s">
         <v>80</v>
       </c>
-      <c r="B75" s="456"/>
-      <c r="C75" s="304">
+      <c r="B75" s="455"/>
+      <c r="C75" s="303">
         <f>SUM(C4:C74)</f>
         <v>98710</v>
       </c>
-      <c r="D75" s="305"/>
-      <c r="E75" s="331"/>
+      <c r="D75" s="304"/>
+      <c r="E75" s="330"/>
     </row>
   </sheetData>
   <mergeCells count="3">
